--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>636448.1644507048</v>
+        <v>634657.313622537</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4075031.288146186</v>
+        <v>4075031.288146182</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>3.487951988786138</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>6.84140014930867</v>
       </c>
       <c r="V8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>12.73205987707309</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>10.75721046822444</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5951979700751</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>284.1342480776021</v>
@@ -1376,19 +1376,19 @@
         <v>273.5443979272775</v>
       </c>
       <c r="E11" t="n">
-        <v>300.7917263788563</v>
+        <v>300.7917263788564</v>
       </c>
       <c r="F11" t="n">
-        <v>216.9903278324911</v>
+        <v>325.737402048306</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>331.4669604597344</v>
       </c>
       <c r="H11" t="n">
-        <v>230.7141413788282</v>
+        <v>230.7141413788283</v>
       </c>
       <c r="I11" t="n">
-        <v>25.35601193868008</v>
+        <v>25.35601193868014</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.42049940637401</v>
+        <v>66.42049940637406</v>
       </c>
       <c r="T11" t="n">
         <v>130.1505045785919</v>
       </c>
       <c r="U11" t="n">
-        <v>169.9912385454714</v>
+        <v>51.86253380105281</v>
       </c>
       <c r="V11" t="n">
-        <v>246.6136147767294</v>
+        <v>246.6136147767295</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>268.1023250240076</v>
       </c>
       <c r="X11" t="n">
-        <v>288.5924569850636</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.69333648853183</v>
+        <v>98.69333648853188</v>
       </c>
       <c r="C13" t="n">
-        <v>86.10817740522236</v>
+        <v>86.10817740522242</v>
       </c>
       <c r="D13" t="n">
-        <v>67.47682932480689</v>
+        <v>67.47682932480694</v>
       </c>
       <c r="E13" t="n">
-        <v>65.2953189531637</v>
+        <v>65.29531895316376</v>
       </c>
       <c r="F13" t="n">
-        <v>64.28240432952578</v>
+        <v>64.28240432952583</v>
       </c>
       <c r="G13" t="n">
-        <v>85.64249449099435</v>
+        <v>85.64249449099444</v>
       </c>
       <c r="H13" t="n">
-        <v>70.33194092103754</v>
+        <v>70.33194092103761</v>
       </c>
       <c r="I13" t="n">
-        <v>37.92860756306283</v>
+        <v>37.92860756306195</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.755889075624</v>
+        <v>41.75588907562405</v>
       </c>
       <c r="S13" t="n">
-        <v>121.7937222465582</v>
+        <v>121.7937222465583</v>
       </c>
       <c r="T13" t="n">
-        <v>141.6376243548061</v>
+        <v>141.6376243548062</v>
       </c>
       <c r="U13" t="n">
         <v>205.1143943263186</v>
       </c>
       <c r="V13" t="n">
-        <v>170.9989996304225</v>
+        <v>170.9989996304226</v>
       </c>
       <c r="W13" t="n">
-        <v>205.3843546431855</v>
+        <v>205.3843546431856</v>
       </c>
       <c r="X13" t="n">
         <v>144.5710116956317</v>
       </c>
       <c r="Y13" t="n">
-        <v>137.4460096586893</v>
+        <v>137.4460096586894</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.5951979700751</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>50.21339253454281</v>
+        <v>284.1342480776021</v>
       </c>
       <c r="D14" t="n">
         <v>273.5443979272775</v>
       </c>
       <c r="E14" t="n">
-        <v>300.7917263788563</v>
+        <v>300.7917263788564</v>
       </c>
       <c r="F14" t="n">
-        <v>325.737402048306</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>331.4669604597344</v>
       </c>
       <c r="H14" t="n">
-        <v>230.7141413788282</v>
+        <v>230.7141413788283</v>
       </c>
       <c r="I14" t="n">
-        <v>25.35601193868008</v>
+        <v>25.35601193868011</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.42049940637401</v>
+        <v>66.42049940637405</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.1505045785919</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>16.64762512000013</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>246.6136147767295</v>
       </c>
       <c r="W14" t="n">
-        <v>268.1023250240075</v>
+        <v>268.1023250240076</v>
       </c>
       <c r="X14" t="n">
         <v>288.5924569850636</v>
       </c>
       <c r="Y14" t="n">
-        <v>305.0992949626481</v>
+        <v>305.0992949626482</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.2981984232939</v>
       </c>
       <c r="I15" t="n">
-        <v>39.71117434385826</v>
+        <v>39.71117434385825</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.55944553697759</v>
+        <v>10.55944553697758</v>
       </c>
       <c r="S15" t="n">
         <v>144.8783409408438</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.69333648853183</v>
+        <v>98.69333648853188</v>
       </c>
       <c r="C16" t="n">
-        <v>86.10817740522236</v>
+        <v>86.10817740522242</v>
       </c>
       <c r="D16" t="n">
-        <v>67.47682932480689</v>
+        <v>67.47682932480694</v>
       </c>
       <c r="E16" t="n">
-        <v>65.2953189531637</v>
+        <v>65.29531895316376</v>
       </c>
       <c r="F16" t="n">
-        <v>64.28240432952578</v>
+        <v>64.28240432952583</v>
       </c>
       <c r="G16" t="n">
-        <v>85.64249449099437</v>
+        <v>85.64249449099442</v>
       </c>
       <c r="H16" t="n">
-        <v>70.33194092103754</v>
+        <v>70.3319409210376</v>
       </c>
       <c r="I16" t="n">
-        <v>37.92860756306283</v>
+        <v>37.92860756306288</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.755889075624</v>
+        <v>41.75588907562405</v>
       </c>
       <c r="S16" t="n">
-        <v>121.7937222465582</v>
+        <v>121.7937222465583</v>
       </c>
       <c r="T16" t="n">
-        <v>141.6376243548061</v>
+        <v>141.6376243548062</v>
       </c>
       <c r="U16" t="n">
         <v>205.1143943263186</v>
       </c>
       <c r="V16" t="n">
-        <v>170.9989996304225</v>
+        <v>170.9989996304226</v>
       </c>
       <c r="W16" t="n">
-        <v>205.3843546431855</v>
+        <v>205.3843546431856</v>
       </c>
       <c r="X16" t="n">
         <v>144.5710116956317</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.4460096586893</v>
+        <v>137.4460096586894</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.6494647530719</v>
+        <v>276.239186031395</v>
       </c>
       <c r="C17" t="n">
         <v>258.778236138922</v>
@@ -1856,10 +1856,10 @@
         <v>300.3813901096259</v>
       </c>
       <c r="G17" t="n">
-        <v>306.1109485210543</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>205.3581294401482</v>
+        <v>111.1330435975516</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>41.06448746769394</v>
+        <v>41.06448746769392</v>
       </c>
       <c r="T17" t="n">
         <v>104.7944926399118</v>
@@ -1904,7 +1904,7 @@
         <v>221.2576028380494</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>242.7463130853275</v>
       </c>
       <c r="X17" t="n">
         <v>263.2364450463835</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.33732454985176</v>
+        <v>73.33732454985174</v>
       </c>
       <c r="C19" t="n">
-        <v>60.75216546654229</v>
+        <v>60.75216546654228</v>
       </c>
       <c r="D19" t="n">
-        <v>42.12081738612682</v>
+        <v>42.1208173861268</v>
       </c>
       <c r="E19" t="n">
-        <v>39.93930701448363</v>
+        <v>39.93930701448362</v>
       </c>
       <c r="F19" t="n">
-        <v>38.92639239084571</v>
+        <v>38.92639239084569</v>
       </c>
       <c r="G19" t="n">
-        <v>60.2864825523143</v>
+        <v>60.28648255231429</v>
       </c>
       <c r="H19" t="n">
-        <v>44.97592898235747</v>
+        <v>44.97592898235746</v>
       </c>
       <c r="I19" t="n">
-        <v>12.57259562438276</v>
+        <v>12.57259562438274</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.39987713694393</v>
+        <v>16.39987713694391</v>
       </c>
       <c r="S19" t="n">
-        <v>96.43771030787815</v>
+        <v>96.43771030787813</v>
       </c>
       <c r="T19" t="n">
         <v>116.281612416126</v>
@@ -2068,7 +2068,7 @@
         <v>119.2149997569516</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.0899977200093</v>
+        <v>112.0899977200092</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>134.6813878066656</v>
+        <v>276.239186031395</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>258.778236138922</v>
       </c>
       <c r="D20" t="n">
-        <v>248.1883859885974</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>275.4357144401762</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>41.06448746769394</v>
+        <v>41.06448746769392</v>
       </c>
       <c r="T20" t="n">
         <v>104.7944926399118</v>
@@ -2138,7 +2138,7 @@
         <v>144.6352266067913</v>
       </c>
       <c r="V20" t="n">
-        <v>221.2576028380494</v>
+        <v>69.10995446299599</v>
       </c>
       <c r="W20" t="n">
         <v>242.7463130853275</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.33732454985176</v>
+        <v>73.33732454985174</v>
       </c>
       <c r="C22" t="n">
-        <v>60.75216546654229</v>
+        <v>60.75216546654228</v>
       </c>
       <c r="D22" t="n">
-        <v>42.12081738612682</v>
+        <v>42.1208173861268</v>
       </c>
       <c r="E22" t="n">
-        <v>39.93930701448363</v>
+        <v>39.93930701448362</v>
       </c>
       <c r="F22" t="n">
-        <v>38.92639239084571</v>
+        <v>38.92639239084569</v>
       </c>
       <c r="G22" t="n">
-        <v>60.2864825523143</v>
+        <v>60.28648255231429</v>
       </c>
       <c r="H22" t="n">
-        <v>44.97592898235747</v>
+        <v>44.97592898235746</v>
       </c>
       <c r="I22" t="n">
-        <v>12.57259562438276</v>
+        <v>12.57259562438274</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.39987713694393</v>
+        <v>16.39987713694391</v>
       </c>
       <c r="S22" t="n">
-        <v>96.43771030787815</v>
+        <v>96.43771030787813</v>
       </c>
       <c r="T22" t="n">
         <v>116.281612416126</v>
@@ -2305,7 +2305,7 @@
         <v>119.2149997569516</v>
       </c>
       <c r="Y22" t="n">
-        <v>112.0899977200093</v>
+        <v>112.0899977200092</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>41.06448746769394</v>
+        <v>41.06448746769392</v>
       </c>
       <c r="T23" t="n">
         <v>104.7944926399118</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.33732454985176</v>
+        <v>73.33732454985174</v>
       </c>
       <c r="C25" t="n">
-        <v>60.75216546654229</v>
+        <v>60.75216546654228</v>
       </c>
       <c r="D25" t="n">
-        <v>42.12081738612682</v>
+        <v>42.1208173861268</v>
       </c>
       <c r="E25" t="n">
-        <v>39.93930701448363</v>
+        <v>39.93930701448362</v>
       </c>
       <c r="F25" t="n">
-        <v>38.92639239084571</v>
+        <v>38.92639239084569</v>
       </c>
       <c r="G25" t="n">
-        <v>60.2864825523143</v>
+        <v>60.28648255231429</v>
       </c>
       <c r="H25" t="n">
-        <v>44.97592898235747</v>
+        <v>44.97592898235746</v>
       </c>
       <c r="I25" t="n">
-        <v>12.57259562438276</v>
+        <v>12.57259562438274</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.39987713694393</v>
+        <v>16.39987713694391</v>
       </c>
       <c r="S25" t="n">
-        <v>96.43771030787815</v>
+        <v>96.43771030787813</v>
       </c>
       <c r="T25" t="n">
         <v>116.281612416126</v>
@@ -2542,7 +2542,7 @@
         <v>119.2149997569516</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.0899977200093</v>
+        <v>112.0899977200092</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>93.70681621106726</v>
+        <v>93.70681621106728</v>
       </c>
       <c r="T26" t="n">
         <v>157.4368213832851</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>94.76314612950016</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>92.58163575785697</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.54236894333556</v>
+        <v>112.9288112956877</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>97.61825772573083</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>65.2149243677561</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>69.04220588031725</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>149.0800390512515</v>
@@ -2767,16 +2767,16 @@
         <v>168.9239411594994</v>
       </c>
       <c r="U28" t="n">
-        <v>232.4007111310118</v>
+        <v>232.4007111310119</v>
       </c>
       <c r="V28" t="n">
-        <v>198.2853164351158</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>232.6706714478788</v>
+        <v>226.2911159304407</v>
       </c>
       <c r="X28" t="n">
-        <v>171.8573285003249</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>164.7323264633826</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>328.8815147747683</v>
+        <v>328.8815147747684</v>
       </c>
       <c r="C29" t="n">
-        <v>311.4205648822953</v>
+        <v>311.4205648822954</v>
       </c>
       <c r="D29" t="n">
-        <v>300.8307147319707</v>
+        <v>300.8307147319708</v>
       </c>
       <c r="E29" t="n">
-        <v>328.0780431835495</v>
+        <v>328.0780431835496</v>
       </c>
       <c r="F29" t="n">
-        <v>353.0237188529992</v>
+        <v>353.0237188529993</v>
       </c>
       <c r="G29" t="n">
-        <v>358.7532772644276</v>
+        <v>358.7532772644277</v>
       </c>
       <c r="H29" t="n">
         <v>258.0004581835215</v>
       </c>
       <c r="I29" t="n">
-        <v>52.64232874337329</v>
+        <v>52.64232874337335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>93.70681621106721</v>
+        <v>93.70681621106728</v>
       </c>
       <c r="T29" t="n">
         <v>157.4368213832851</v>
       </c>
       <c r="U29" t="n">
-        <v>197.2775553501646</v>
+        <v>197.2775553501647</v>
       </c>
       <c r="V29" t="n">
         <v>273.8999315814227</v>
@@ -2858,7 +2858,7 @@
         <v>315.8787737897568</v>
       </c>
       <c r="Y29" t="n">
-        <v>332.3856117673413</v>
+        <v>332.3856117673414</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>50.94038647870503</v>
+        <v>113.3944942099156</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>94.76314612950016</v>
       </c>
       <c r="E31" t="n">
-        <v>92.5816357578569</v>
+        <v>92.58163575785697</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>91.56872113421905</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>97.61825772573083</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>65.2149243677561</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>69.0422058803172</v>
+        <v>69.04220588031727</v>
       </c>
       <c r="S31" t="n">
-        <v>149.0800390512514</v>
+        <v>149.0800390512515</v>
       </c>
       <c r="T31" t="n">
-        <v>168.9239411594993</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>232.4007111310118</v>
+        <v>232.4007111310119</v>
       </c>
       <c r="V31" t="n">
-        <v>198.2853164351157</v>
+        <v>127.4474290065221</v>
       </c>
       <c r="W31" t="n">
-        <v>232.6706714478787</v>
+        <v>232.6706714478788</v>
       </c>
       <c r="X31" t="n">
-        <v>171.8573285003249</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.7323264633825</v>
+        <v>164.7323264633826</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>284.1342480776021</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>273.5443979272775</v>
       </c>
       <c r="E32" t="n">
-        <v>300.7917263788564</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>325.737402048306</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.6056041531398</v>
+        <v>331.4669604597344</v>
       </c>
       <c r="H32" t="n">
         <v>230.7141413788283</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>147.5591430997795</v>
+        <v>91.77381295441469</v>
       </c>
       <c r="T32" t="n">
         <v>211.2891482719973</v>
       </c>
       <c r="U32" t="n">
-        <v>169.9912385454715</v>
+        <v>251.1298822388769</v>
       </c>
       <c r="V32" t="n">
-        <v>271.9669283247684</v>
+        <v>246.6136147767295</v>
       </c>
       <c r="W32" t="n">
         <v>268.1023250240076</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.69333648853188</v>
+        <v>98.69333648853187</v>
       </c>
       <c r="C34" t="n">
-        <v>86.10817740522106</v>
+        <v>86.10817740522241</v>
       </c>
       <c r="D34" t="n">
-        <v>67.47682932480694</v>
+        <v>67.47682932480693</v>
       </c>
       <c r="E34" t="n">
-        <v>65.29531895316376</v>
+        <v>65.29531895316374</v>
       </c>
       <c r="F34" t="n">
-        <v>64.28240432952583</v>
+        <v>64.28240432952582</v>
       </c>
       <c r="G34" t="n">
         <v>85.64249449099442</v>
@@ -3205,7 +3205,7 @@
         <v>70.3319409210376</v>
       </c>
       <c r="I34" t="n">
-        <v>37.92860756306288</v>
+        <v>37.92860756306287</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.75588907562405</v>
+        <v>41.75588907562404</v>
       </c>
       <c r="S34" t="n">
         <v>121.7937222465583</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.5951979700752</v>
+        <v>301.5951979700751</v>
       </c>
       <c r="C35" t="n">
         <v>284.1342480776021</v>
@@ -3272,7 +3272,7 @@
         <v>273.5443979272775</v>
       </c>
       <c r="E35" t="n">
-        <v>300.7917263788564</v>
+        <v>300.7917263788563</v>
       </c>
       <c r="F35" t="n">
         <v>325.737402048306</v>
@@ -3281,10 +3281,10 @@
         <v>331.4669604597344</v>
       </c>
       <c r="H35" t="n">
-        <v>230.7141413788283</v>
+        <v>230.7141413788282</v>
       </c>
       <c r="I35" t="n">
-        <v>25.35601193868013</v>
+        <v>25.35601193868008</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.42049940637405</v>
+        <v>66.42049940637401</v>
       </c>
       <c r="T35" t="n">
         <v>130.1505045785919</v>
@@ -3323,16 +3323,16 @@
         <v>169.9912385454714</v>
       </c>
       <c r="V35" t="n">
-        <v>246.6136147767295</v>
+        <v>246.6136147767294</v>
       </c>
       <c r="W35" t="n">
-        <v>268.1023250240076</v>
+        <v>268.1023250240075</v>
       </c>
       <c r="X35" t="n">
         <v>288.5924569850636</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.0992949626482</v>
+        <v>305.0992949626481</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.69333648853187</v>
+        <v>98.69333648853183</v>
       </c>
       <c r="C37" t="n">
-        <v>86.10817740522241</v>
+        <v>86.10817740522236</v>
       </c>
       <c r="D37" t="n">
-        <v>67.47682932480693</v>
+        <v>67.47682932480689</v>
       </c>
       <c r="E37" t="n">
-        <v>65.29531895316374</v>
+        <v>65.2953189531637</v>
       </c>
       <c r="F37" t="n">
-        <v>64.28240432952582</v>
+        <v>64.28240432952578</v>
       </c>
       <c r="G37" t="n">
-        <v>85.64249449099442</v>
+        <v>85.64249449099438</v>
       </c>
       <c r="H37" t="n">
-        <v>70.33194092103759</v>
+        <v>70.33194092103756</v>
       </c>
       <c r="I37" t="n">
-        <v>37.92860756306287</v>
+        <v>37.92860756306283</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75588907562404</v>
+        <v>41.755889075624</v>
       </c>
       <c r="S37" t="n">
-        <v>121.7937222465583</v>
+        <v>121.7937222465582</v>
       </c>
       <c r="T37" t="n">
-        <v>141.6376243548062</v>
+        <v>141.6376243548061</v>
       </c>
       <c r="U37" t="n">
         <v>205.1143943263186</v>
       </c>
       <c r="V37" t="n">
-        <v>170.9989996304226</v>
+        <v>170.9989996304225</v>
       </c>
       <c r="W37" t="n">
-        <v>205.3843546431856</v>
+        <v>205.3843546431855</v>
       </c>
       <c r="X37" t="n">
         <v>144.5710116956317</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.4460096586894</v>
+        <v>137.4460096586893</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.5951979700752</v>
+        <v>301.5951979700751</v>
       </c>
       <c r="C38" t="n">
         <v>284.1342480776021</v>
@@ -3509,7 +3509,7 @@
         <v>273.5443979272775</v>
       </c>
       <c r="E38" t="n">
-        <v>300.7917263788564</v>
+        <v>300.7917263788563</v>
       </c>
       <c r="F38" t="n">
         <v>325.737402048306</v>
@@ -3518,10 +3518,10 @@
         <v>331.4669604597344</v>
       </c>
       <c r="H38" t="n">
-        <v>230.7141413788283</v>
+        <v>230.7141413788282</v>
       </c>
       <c r="I38" t="n">
-        <v>25.35601193868013</v>
+        <v>25.35601193868008</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.42049940637405</v>
+        <v>66.42049940637401</v>
       </c>
       <c r="T38" t="n">
         <v>130.1505045785919</v>
@@ -3560,16 +3560,16 @@
         <v>169.9912385454714</v>
       </c>
       <c r="V38" t="n">
-        <v>246.6136147767295</v>
+        <v>246.6136147767294</v>
       </c>
       <c r="W38" t="n">
-        <v>268.1023250240076</v>
+        <v>268.1023250240075</v>
       </c>
       <c r="X38" t="n">
         <v>288.5924569850636</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.0992949626482</v>
+        <v>305.0992949626481</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.69333648853187</v>
+        <v>98.69333648853183</v>
       </c>
       <c r="C40" t="n">
-        <v>86.10817740522241</v>
+        <v>86.10817740522236</v>
       </c>
       <c r="D40" t="n">
-        <v>67.47682932480693</v>
+        <v>67.47682932480689</v>
       </c>
       <c r="E40" t="n">
-        <v>65.29531895316374</v>
+        <v>65.2953189531637</v>
       </c>
       <c r="F40" t="n">
-        <v>64.28240432952582</v>
+        <v>64.28240432952578</v>
       </c>
       <c r="G40" t="n">
-        <v>85.64249449099441</v>
+        <v>85.64249449099437</v>
       </c>
       <c r="H40" t="n">
-        <v>70.33194092103759</v>
+        <v>70.33194092103754</v>
       </c>
       <c r="I40" t="n">
-        <v>37.92860756306287</v>
+        <v>37.92860756306283</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75588907562404</v>
+        <v>41.755889075624</v>
       </c>
       <c r="S40" t="n">
-        <v>121.7937222465583</v>
+        <v>121.7937222465582</v>
       </c>
       <c r="T40" t="n">
-        <v>141.6376243548062</v>
+        <v>141.6376243548061</v>
       </c>
       <c r="U40" t="n">
         <v>205.1143943263186</v>
       </c>
       <c r="V40" t="n">
-        <v>170.9989996304226</v>
+        <v>170.9989996304225</v>
       </c>
       <c r="W40" t="n">
-        <v>205.3843546431856</v>
+        <v>205.3843546431855</v>
       </c>
       <c r="X40" t="n">
         <v>144.5710116956317</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.4460096586894</v>
+        <v>137.4460096586893</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.5951979700751</v>
+        <v>301.5951979700752</v>
       </c>
       <c r="C41" t="n">
         <v>284.1342480776021</v>
@@ -3746,7 +3746,7 @@
         <v>273.5443979272775</v>
       </c>
       <c r="E41" t="n">
-        <v>300.7917263788563</v>
+        <v>300.7917263788564</v>
       </c>
       <c r="F41" t="n">
         <v>325.737402048306</v>
@@ -3755,10 +3755,10 @@
         <v>331.4669604597344</v>
       </c>
       <c r="H41" t="n">
-        <v>230.7141413788282</v>
+        <v>230.7141413788283</v>
       </c>
       <c r="I41" t="n">
-        <v>25.35601193868007</v>
+        <v>25.35601193868013</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.42049940637399</v>
+        <v>66.42049940637405</v>
       </c>
       <c r="T41" t="n">
         <v>130.1505045785919</v>
@@ -3797,16 +3797,16 @@
         <v>169.9912385454714</v>
       </c>
       <c r="V41" t="n">
-        <v>246.6136147767294</v>
+        <v>246.6136147767295</v>
       </c>
       <c r="W41" t="n">
-        <v>268.1023250240075</v>
+        <v>268.1023250240076</v>
       </c>
       <c r="X41" t="n">
         <v>288.5924569850636</v>
       </c>
       <c r="Y41" t="n">
-        <v>305.0992949626481</v>
+        <v>305.0992949626482</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.69333648853181</v>
+        <v>98.69333648853187</v>
       </c>
       <c r="C43" t="n">
-        <v>86.10817740522235</v>
+        <v>86.10817740522241</v>
       </c>
       <c r="D43" t="n">
-        <v>67.47682932480687</v>
+        <v>67.47682932480693</v>
       </c>
       <c r="E43" t="n">
-        <v>65.29531895316369</v>
+        <v>65.29531895316374</v>
       </c>
       <c r="F43" t="n">
-        <v>64.28240432952576</v>
+        <v>64.28240432952582</v>
       </c>
       <c r="G43" t="n">
-        <v>85.64249449099435</v>
+        <v>85.64249449099442</v>
       </c>
       <c r="H43" t="n">
-        <v>70.33194092103753</v>
+        <v>70.3319409210376</v>
       </c>
       <c r="I43" t="n">
-        <v>37.92860756306281</v>
+        <v>37.92860756306287</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75588907562398</v>
+        <v>41.75588907562404</v>
       </c>
       <c r="S43" t="n">
-        <v>121.7937222465582</v>
+        <v>121.7937222465583</v>
       </c>
       <c r="T43" t="n">
-        <v>141.6376243548061</v>
+        <v>141.6376243548062</v>
       </c>
       <c r="U43" t="n">
         <v>205.1143943263186</v>
       </c>
       <c r="V43" t="n">
-        <v>170.9989996304225</v>
+        <v>170.9989996304226</v>
       </c>
       <c r="W43" t="n">
-        <v>205.3843546431855</v>
+        <v>205.3843546431856</v>
       </c>
       <c r="X43" t="n">
         <v>144.5710116956317</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.4460096586893</v>
+        <v>137.4460096586894</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>301.5951979700752</v>
+        <v>301.5951979700751</v>
       </c>
       <c r="C44" t="n">
         <v>284.1342480776021</v>
@@ -3983,7 +3983,7 @@
         <v>273.5443979272775</v>
       </c>
       <c r="E44" t="n">
-        <v>300.7917263788564</v>
+        <v>300.7917263788563</v>
       </c>
       <c r="F44" t="n">
         <v>325.737402048306</v>
@@ -3992,10 +3992,10 @@
         <v>331.4669604597344</v>
       </c>
       <c r="H44" t="n">
-        <v>230.7141413788283</v>
+        <v>230.7141413788285</v>
       </c>
       <c r="I44" t="n">
-        <v>25.3560119386801</v>
+        <v>25.35601193868011</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>169.9912385454714</v>
       </c>
       <c r="V44" t="n">
-        <v>246.6136147767295</v>
+        <v>246.6136147767294</v>
       </c>
       <c r="W44" t="n">
-        <v>268.1023250240076</v>
+        <v>268.1023250240075</v>
       </c>
       <c r="X44" t="n">
         <v>288.5924569850636</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.0992949626482</v>
+        <v>305.0992949626481</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>135.9004235912714</v>
       </c>
       <c r="H45" t="n">
-        <v>98.2981984232939</v>
+        <v>98.29819842329391</v>
       </c>
       <c r="I45" t="n">
-        <v>39.71117434385825</v>
+        <v>39.71117434385827</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.55944553697758</v>
+        <v>10.55944553697762</v>
       </c>
       <c r="S45" t="n">
         <v>144.8783409408438</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.69333648853187</v>
+        <v>98.69333648853183</v>
       </c>
       <c r="C46" t="n">
-        <v>86.10817740522241</v>
+        <v>86.10817740522236</v>
       </c>
       <c r="D46" t="n">
-        <v>67.47682932480693</v>
+        <v>67.47682932480689</v>
       </c>
       <c r="E46" t="n">
-        <v>65.29531895316374</v>
+        <v>65.2953189531637</v>
       </c>
       <c r="F46" t="n">
-        <v>64.28240432952582</v>
+        <v>64.28240432952578</v>
       </c>
       <c r="G46" t="n">
-        <v>85.64249449099442</v>
+        <v>85.64249449099438</v>
       </c>
       <c r="H46" t="n">
-        <v>70.33194092103759</v>
+        <v>70.33194092103756</v>
       </c>
       <c r="I46" t="n">
-        <v>37.92860756306287</v>
+        <v>37.92860756306284</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75588907562403</v>
+        <v>41.75588907562402</v>
       </c>
       <c r="S46" t="n">
-        <v>121.7937222465583</v>
+        <v>121.7937222465582</v>
       </c>
       <c r="T46" t="n">
-        <v>141.6376243548062</v>
+        <v>141.6376243548061</v>
       </c>
       <c r="U46" t="n">
         <v>205.1143943263186</v>
       </c>
       <c r="V46" t="n">
-        <v>170.9989996304226</v>
+        <v>170.9989996304225</v>
       </c>
       <c r="W46" t="n">
-        <v>205.3843546431856</v>
+        <v>205.3843546431855</v>
       </c>
       <c r="X46" t="n">
         <v>144.5710116956317</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.4460096586894</v>
+        <v>137.4460096586893</v>
       </c>
     </row>
   </sheetData>
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="C8" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="D8" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="E8" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="F8" t="n">
-        <v>16.68152962255934</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N8" t="n">
         <v>46.0612399205565</v>
@@ -4832,22 +4832,22 @@
         <v>51.11933469231312</v>
       </c>
       <c r="T8" t="n">
-        <v>47.59615086525642</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U8" t="n">
-        <v>47.59615086525642</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="V8" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="W8" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="X8" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="Y8" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="C9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="D9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="E9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I9" t="n">
         <v>1.978351653996518</v>
@@ -4884,49 +4884,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="N9" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="L9" t="n">
-        <v>16.37392914119451</v>
-      </c>
-      <c r="M9" t="n">
-        <v>30.9115297805728</v>
-      </c>
-      <c r="N9" t="n">
-        <v>30.9115297805728</v>
-      </c>
       <c r="O9" t="n">
-        <v>46.0612399205565</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="P9" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.978351653996518</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.13884024390788</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="C10" t="n">
-        <v>32.13884024390788</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="D10" t="n">
-        <v>32.13884024390788</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="E10" t="n">
-        <v>32.13884024390788</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="F10" t="n">
-        <v>32.13884024390788</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="G10" t="n">
-        <v>32.13884024390788</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="H10" t="n">
         <v>32.13884024390788</v>
@@ -4993,16 +4993,16 @@
         <v>58.46202002507908</v>
       </c>
       <c r="U10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="V10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="W10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="X10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Y10" t="n">
         <v>43.00470940373054</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1397.235749102228</v>
+        <v>1841.896390188642</v>
       </c>
       <c r="C11" t="n">
-        <v>1110.231458114751</v>
+        <v>1554.892099201165</v>
       </c>
       <c r="D11" t="n">
-        <v>833.9239854609349</v>
+        <v>1278.584626547349</v>
       </c>
       <c r="E11" t="n">
-        <v>530.0939588156255</v>
+        <v>974.7545999020394</v>
       </c>
       <c r="F11" t="n">
-        <v>310.9118094898773</v>
+        <v>645.7269210653667</v>
       </c>
       <c r="G11" t="n">
-        <v>310.9118094898773</v>
+        <v>310.9118094898774</v>
       </c>
       <c r="H11" t="n">
-        <v>77.86722223853566</v>
+        <v>77.86722223853572</v>
       </c>
       <c r="I11" t="n">
         <v>52.25508896714164</v>
       </c>
       <c r="J11" t="n">
-        <v>99.64630794153683</v>
+        <v>267.0519569618899</v>
       </c>
       <c r="K11" t="n">
-        <v>542.3159369693984</v>
+        <v>709.7215859897515</v>
       </c>
       <c r="L11" t="n">
-        <v>961.290852426863</v>
+        <v>897.6844294622927</v>
       </c>
       <c r="M11" t="n">
-        <v>1202.10516979681</v>
+        <v>1138.49874683224</v>
       </c>
       <c r="N11" t="n">
-        <v>1848.761895765188</v>
+        <v>1387.823499999683</v>
       </c>
       <c r="O11" t="n">
-        <v>2070.85692891613</v>
+        <v>1841.305949409635</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.489621591078</v>
+        <v>2314.938642084584</v>
       </c>
       <c r="Q11" t="n">
-        <v>2612.754448357082</v>
+        <v>2593.395309603893</v>
       </c>
       <c r="R11" t="n">
         <v>2612.754448357082</v>
@@ -5072,19 +5072,19 @@
         <v>2414.197878675298</v>
       </c>
       <c r="U11" t="n">
-        <v>2242.489556912195</v>
+        <v>2361.811480896457</v>
       </c>
       <c r="V11" t="n">
-        <v>1993.38489552156</v>
+        <v>2112.706819505821</v>
       </c>
       <c r="W11" t="n">
-        <v>1993.38489552156</v>
+        <v>1841.896390188642</v>
       </c>
       <c r="X11" t="n">
-        <v>1701.877363213415</v>
+        <v>1841.896390188642</v>
       </c>
       <c r="Y11" t="n">
-        <v>1701.877363213415</v>
+        <v>1841.896390188642</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958.0911028662958</v>
+        <v>958.0911028662954</v>
       </c>
       <c r="C12" t="n">
-        <v>783.6380735851689</v>
+        <v>783.6380735851684</v>
       </c>
       <c r="D12" t="n">
-        <v>634.7036639239177</v>
+        <v>634.7036639239172</v>
       </c>
       <c r="E12" t="n">
-        <v>475.4662089184621</v>
+        <v>475.4662089184617</v>
       </c>
       <c r="F12" t="n">
-        <v>328.9316509453472</v>
+        <v>328.9316509453467</v>
       </c>
       <c r="G12" t="n">
-        <v>191.6584958026486</v>
+        <v>191.6584958026488</v>
       </c>
       <c r="H12" t="n">
-        <v>92.36738628417018</v>
+        <v>92.36738628417015</v>
       </c>
       <c r="I12" t="n">
         <v>52.25508896714164</v>
       </c>
       <c r="J12" t="n">
-        <v>186.4932523559513</v>
+        <v>61.66312736894655</v>
       </c>
       <c r="K12" t="n">
-        <v>542.5484978423227</v>
+        <v>417.718372855318</v>
       </c>
       <c r="L12" t="n">
-        <v>1082.713111632001</v>
+        <v>957.8829866449964</v>
       </c>
       <c r="M12" t="n">
-        <v>1303.990946533501</v>
+        <v>1283.30184782489</v>
       </c>
       <c r="N12" t="n">
-        <v>1706.792074724704</v>
+        <v>1524.844893499233</v>
       </c>
       <c r="O12" t="n">
-        <v>1905.536977053729</v>
+        <v>2113.513491912219</v>
       </c>
       <c r="P12" t="n">
-        <v>2360.992357543129</v>
+        <v>2568.96887240162</v>
       </c>
       <c r="Q12" t="n">
         <v>2612.754448357082</v>
@@ -5145,7 +5145,7 @@
         <v>2602.088341754074</v>
       </c>
       <c r="S12" t="n">
-        <v>2455.74658322797</v>
+        <v>2455.746583227969</v>
       </c>
       <c r="T12" t="n">
         <v>2259.435422720229</v>
@@ -5157,13 +5157,13 @@
         <v>1796.155595585052</v>
       </c>
       <c r="W12" t="n">
-        <v>1541.918238856851</v>
+        <v>1541.91823885685</v>
       </c>
       <c r="X12" t="n">
-        <v>1334.066738651318</v>
+        <v>1334.066738651317</v>
       </c>
       <c r="Y12" t="n">
-        <v>1126.306439886364</v>
+        <v>1126.306439886363</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>534.1397081467514</v>
+        <v>534.1397081467503</v>
       </c>
       <c r="C13" t="n">
-        <v>447.1617511717794</v>
+        <v>447.1617511717781</v>
       </c>
       <c r="D13" t="n">
-        <v>379.0033377123785</v>
+        <v>379.0033377123772</v>
       </c>
       <c r="E13" t="n">
-        <v>313.0484700829202</v>
+        <v>313.0484700829188</v>
       </c>
       <c r="F13" t="n">
-        <v>248.1167485379447</v>
+        <v>248.1167485379435</v>
       </c>
       <c r="G13" t="n">
-        <v>161.6091783450208</v>
+        <v>161.6091783450198</v>
       </c>
       <c r="H13" t="n">
-        <v>90.56681377831616</v>
+        <v>90.56681377831532</v>
       </c>
       <c r="I13" t="n">
         <v>52.25508896714164</v>
@@ -5200,13 +5200,13 @@
         <v>124.8371712040127</v>
       </c>
       <c r="K13" t="n">
-        <v>322.2735633931167</v>
+        <v>322.2735633931166</v>
       </c>
       <c r="L13" t="n">
-        <v>607.9866287023369</v>
+        <v>607.9866287023365</v>
       </c>
       <c r="M13" t="n">
-        <v>915.2535464297116</v>
+        <v>915.2535464297114</v>
       </c>
       <c r="N13" t="n">
         <v>1222.558962688023</v>
@@ -5215,34 +5215,34 @@
         <v>1496.520991747806</v>
       </c>
       <c r="P13" t="n">
-        <v>1719.015565493641</v>
+        <v>1719.01556549364</v>
       </c>
       <c r="Q13" t="n">
-        <v>1814.337023419245</v>
+        <v>1814.337023419244</v>
       </c>
       <c r="R13" t="n">
-        <v>1772.159357686291</v>
+        <v>1772.15935768629</v>
       </c>
       <c r="S13" t="n">
-        <v>1649.135395821081</v>
+        <v>1649.13539582108</v>
       </c>
       <c r="T13" t="n">
-        <v>1506.067088391984</v>
+        <v>1506.067088391983</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.880831496712</v>
+        <v>1298.880831496711</v>
       </c>
       <c r="V13" t="n">
-        <v>1126.15456924376</v>
+        <v>1126.154569243759</v>
       </c>
       <c r="W13" t="n">
-        <v>918.6956251597343</v>
+        <v>918.6956251597333</v>
       </c>
       <c r="X13" t="n">
-        <v>772.6643002146517</v>
+        <v>772.6643002146507</v>
       </c>
       <c r="Y13" t="n">
-        <v>633.8299470240563</v>
+        <v>633.8299470240553</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1610.410459856925</v>
+        <v>1517.66647348799</v>
       </c>
       <c r="C14" t="n">
-        <v>1559.689861337185</v>
+        <v>1230.662182500512</v>
       </c>
       <c r="D14" t="n">
-        <v>1283.382388683369</v>
+        <v>954.3547098466967</v>
       </c>
       <c r="E14" t="n">
-        <v>979.5523620380599</v>
+        <v>650.5246832013872</v>
       </c>
       <c r="F14" t="n">
-        <v>650.5246832013871</v>
+        <v>650.5246832013872</v>
       </c>
       <c r="G14" t="n">
         <v>315.7095716258979</v>
       </c>
       <c r="H14" t="n">
-        <v>82.66498437455614</v>
+        <v>82.66498437455617</v>
       </c>
       <c r="I14" t="n">
-        <v>57.05285110316211</v>
+        <v>57.05285110316212</v>
       </c>
       <c r="J14" t="n">
-        <v>271.8497190979103</v>
+        <v>104.4440700775573</v>
       </c>
       <c r="K14" t="n">
-        <v>714.519348125772</v>
+        <v>505.6785726231193</v>
       </c>
       <c r="L14" t="n">
-        <v>902.4821915983132</v>
+        <v>1107.126018500607</v>
       </c>
       <c r="M14" t="n">
-        <v>1588.314907126164</v>
+        <v>1347.940335870554</v>
       </c>
       <c r="N14" t="n">
-        <v>1837.639660293608</v>
+        <v>2030.238544205861</v>
       </c>
       <c r="O14" t="n">
-        <v>2081.194056210659</v>
+        <v>2629.325756806921</v>
       </c>
       <c r="P14" t="n">
-        <v>2554.826748885607</v>
+        <v>2784.377728392102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2833.283416404916</v>
+        <v>2852.642555158106</v>
       </c>
       <c r="R14" t="n">
         <v>2852.642555158106</v>
@@ -5306,22 +5306,22 @@
         <v>2785.551141616314</v>
       </c>
       <c r="T14" t="n">
-        <v>2785.551141616314</v>
+        <v>2654.085985476322</v>
       </c>
       <c r="U14" t="n">
-        <v>2785.551141616314</v>
+        <v>2637.270202526827</v>
       </c>
       <c r="V14" t="n">
-        <v>2785.551141616314</v>
+        <v>2388.165541136191</v>
       </c>
       <c r="W14" t="n">
-        <v>2514.740712299134</v>
+        <v>2117.355111819012</v>
       </c>
       <c r="X14" t="n">
-        <v>2223.233179990989</v>
+        <v>1825.847579510867</v>
       </c>
       <c r="Y14" t="n">
-        <v>1915.052073968112</v>
+        <v>1517.66647348799</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>97.16514842019066</v>
       </c>
       <c r="I15" t="n">
-        <v>57.05285110316211</v>
+        <v>57.05285110316212</v>
       </c>
       <c r="J15" t="n">
-        <v>66.46088950496703</v>
+        <v>191.2910144919718</v>
       </c>
       <c r="K15" t="n">
-        <v>160.6955503488856</v>
+        <v>547.3462599783433</v>
       </c>
       <c r="L15" t="n">
-        <v>700.860164138564</v>
+        <v>1087.510873768022</v>
       </c>
       <c r="M15" t="n">
-        <v>1383.186012152564</v>
+        <v>1603.377750914449</v>
       </c>
       <c r="N15" t="n">
-        <v>1624.729057826907</v>
+        <v>1844.920796588792</v>
       </c>
       <c r="O15" t="n">
-        <v>2118.311254048241</v>
+        <v>2433.589395001778</v>
       </c>
       <c r="P15" t="n">
         <v>2573.766634537641</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.9374702827718</v>
+        <v>538.937470282772</v>
       </c>
       <c r="C16" t="n">
-        <v>451.9595133077997</v>
+        <v>451.9595133077998</v>
       </c>
       <c r="D16" t="n">
         <v>383.8010998483988</v>
       </c>
       <c r="E16" t="n">
-        <v>317.8462322189405</v>
+        <v>317.8462322189404</v>
       </c>
       <c r="F16" t="n">
-        <v>252.914510673965</v>
+        <v>252.9145106739649</v>
       </c>
       <c r="G16" t="n">
         <v>166.4069404810412</v>
       </c>
       <c r="H16" t="n">
-        <v>95.36457591433668</v>
+        <v>95.36457591433674</v>
       </c>
       <c r="I16" t="n">
-        <v>57.05285110316211</v>
+        <v>57.05285110316212</v>
       </c>
       <c r="J16" t="n">
         <v>129.6349333400332</v>
       </c>
       <c r="K16" t="n">
-        <v>327.071325529137</v>
+        <v>327.0713255291371</v>
       </c>
       <c r="L16" t="n">
-        <v>612.7843908383571</v>
+        <v>612.7843908383572</v>
       </c>
       <c r="M16" t="n">
-        <v>920.0513085657318</v>
+        <v>920.0513085657319</v>
       </c>
       <c r="N16" t="n">
         <v>1227.356724824043</v>
@@ -5467,19 +5467,19 @@
         <v>1510.864850528004</v>
       </c>
       <c r="U16" t="n">
-        <v>1303.678593632732</v>
+        <v>1303.678593632733</v>
       </c>
       <c r="V16" t="n">
-        <v>1130.95233137978</v>
+        <v>1130.952331379781</v>
       </c>
       <c r="W16" t="n">
-        <v>923.4933872957546</v>
+        <v>923.4933872957549</v>
       </c>
       <c r="X16" t="n">
-        <v>777.4620623506719</v>
+        <v>777.4620623506723</v>
       </c>
       <c r="Y16" t="n">
-        <v>638.6277091600766</v>
+        <v>638.627709160077</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1667.409219424904</v>
+        <v>1263.029386734347</v>
       </c>
       <c r="C17" t="n">
-        <v>1406.017061708821</v>
+        <v>1001.637229018264</v>
       </c>
       <c r="D17" t="n">
-        <v>1155.3217223264</v>
+        <v>750.9418896358427</v>
       </c>
       <c r="E17" t="n">
-        <v>877.1038289524843</v>
+        <v>472.7239962619273</v>
       </c>
       <c r="F17" t="n">
-        <v>573.6882833872055</v>
+        <v>169.3084506966486</v>
       </c>
       <c r="G17" t="n">
-        <v>264.4853050831098</v>
+        <v>169.3084506966486</v>
       </c>
       <c r="H17" t="n">
         <v>57.05285110316211</v>
@@ -5513,52 +5513,52 @@
         <v>57.05285110316211</v>
       </c>
       <c r="J17" t="n">
-        <v>271.8497190979103</v>
+        <v>104.4440700775573</v>
       </c>
       <c r="K17" t="n">
-        <v>393.6153896803189</v>
+        <v>547.1136991054188</v>
       </c>
       <c r="L17" t="n">
-        <v>995.062835557806</v>
+        <v>735.07654257796</v>
       </c>
       <c r="M17" t="n">
-        <v>1252.141229195345</v>
+        <v>1420.909258105811</v>
       </c>
       <c r="N17" t="n">
-        <v>1501.465982362788</v>
+        <v>2030.238544205861</v>
       </c>
       <c r="O17" t="n">
-        <v>2100.553194963848</v>
+        <v>2629.325756806921</v>
       </c>
       <c r="P17" t="n">
-        <v>2574.185887638796</v>
+        <v>2784.377728392101</v>
       </c>
       <c r="Q17" t="n">
-        <v>2852.642555158106</v>
+        <v>2852.642555158105</v>
       </c>
       <c r="R17" t="n">
-        <v>2852.642555158106</v>
+        <v>2852.642555158105</v>
       </c>
       <c r="S17" t="n">
-        <v>2811.163274887708</v>
+        <v>2811.163274887707</v>
       </c>
       <c r="T17" t="n">
         <v>2705.31025201911</v>
       </c>
       <c r="U17" t="n">
-        <v>2559.214063527402</v>
+        <v>2559.214063527401</v>
       </c>
       <c r="V17" t="n">
         <v>2335.72153540816</v>
       </c>
       <c r="W17" t="n">
-        <v>2335.72153540816</v>
+        <v>2090.523239362374</v>
       </c>
       <c r="X17" t="n">
-        <v>2069.826136371409</v>
+        <v>1824.627840325623</v>
       </c>
       <c r="Y17" t="n">
-        <v>1787.257163619926</v>
+        <v>1542.05886757414</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>57.05285110316211</v>
       </c>
       <c r="J18" t="n">
-        <v>191.2910144919718</v>
+        <v>189.2985833899888</v>
       </c>
       <c r="K18" t="n">
-        <v>547.3462599783433</v>
+        <v>283.5332442339075</v>
       </c>
       <c r="L18" t="n">
-        <v>1087.510873768022</v>
+        <v>456.5659161731612</v>
       </c>
       <c r="M18" t="n">
-        <v>1308.788708669522</v>
+        <v>1138.891764187161</v>
       </c>
       <c r="N18" t="n">
-        <v>1636.944281730302</v>
+        <v>1844.920796588792</v>
       </c>
       <c r="O18" t="n">
-        <v>2225.612880143288</v>
+        <v>2433.589395001778</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.79011967915</v>
+        <v>2573.766634537641</v>
       </c>
       <c r="Q18" t="n">
         <v>2617.552210493103</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.6525373830137</v>
+        <v>359.6525373830136</v>
       </c>
       <c r="C19" t="n">
-        <v>298.2867136794356</v>
+        <v>298.2867136794355</v>
       </c>
       <c r="D19" t="n">
-        <v>255.7404334914287</v>
+        <v>255.7404334914286</v>
       </c>
       <c r="E19" t="n">
-        <v>215.3976991333644</v>
+        <v>215.3976991333643</v>
       </c>
       <c r="F19" t="n">
-        <v>176.0781108597829</v>
+        <v>176.0781108597828</v>
       </c>
       <c r="G19" t="n">
-        <v>115.1826739382533</v>
+        <v>115.1826739382532</v>
       </c>
       <c r="H19" t="n">
-        <v>69.75244264294267</v>
+        <v>69.75244264294265</v>
       </c>
       <c r="I19" t="n">
         <v>57.05285110316211</v>
@@ -5680,16 +5680,16 @@
         <v>477.2323281447078</v>
       </c>
       <c r="M19" t="n">
-        <v>704.1719886156111</v>
+        <v>726.1364961735483</v>
       </c>
       <c r="N19" t="n">
-        <v>931.1501476174512</v>
+        <v>1058.544364251153</v>
       </c>
       <c r="O19" t="n">
-        <v>1230.214628496528</v>
+        <v>1252.179136054465</v>
       </c>
       <c r="P19" t="n">
-        <v>1372.381944985891</v>
+        <v>1394.346452543828</v>
       </c>
       <c r="Q19" t="n">
         <v>1409.34065321296</v>
@@ -5707,16 +5707,16 @@
         <v>996.3329943760041</v>
       </c>
       <c r="V19" t="n">
-        <v>849.2188653944461</v>
+        <v>849.218865394446</v>
       </c>
       <c r="W19" t="n">
-        <v>667.3720545818143</v>
+        <v>667.3720545818142</v>
       </c>
       <c r="X19" t="n">
-        <v>546.9528629081258</v>
+        <v>546.9528629081257</v>
       </c>
       <c r="Y19" t="n">
-        <v>433.7306429889246</v>
+        <v>433.7306429889244</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1406.017061708821</v>
+        <v>1416.713880042482</v>
       </c>
       <c r="C20" t="n">
-        <v>1406.017061708821</v>
+        <v>1155.321722326399</v>
       </c>
       <c r="D20" t="n">
         <v>1155.321722326399</v>
       </c>
       <c r="E20" t="n">
-        <v>877.1038289524836</v>
+        <v>877.1038289524834</v>
       </c>
       <c r="F20" t="n">
-        <v>573.6882833872048</v>
+        <v>573.6882833872046</v>
       </c>
       <c r="G20" t="n">
-        <v>264.4853050831098</v>
+        <v>264.4853050831097</v>
       </c>
       <c r="H20" t="n">
         <v>57.05285110316211</v>
@@ -5750,52 +5750,52 @@
         <v>57.05285110316211</v>
       </c>
       <c r="J20" t="n">
-        <v>271.8497190979103</v>
+        <v>104.4440700775573</v>
       </c>
       <c r="K20" t="n">
-        <v>393.6153896803189</v>
+        <v>226.2097406599658</v>
       </c>
       <c r="L20" t="n">
-        <v>581.5782331528601</v>
+        <v>827.6571865374528</v>
       </c>
       <c r="M20" t="n">
-        <v>1267.410948680711</v>
+        <v>1347.940335870553</v>
       </c>
       <c r="N20" t="n">
-        <v>1516.735701848155</v>
+        <v>2030.238544205861</v>
       </c>
       <c r="O20" t="n">
-        <v>2081.194056210659</v>
+        <v>2629.325756806921</v>
       </c>
       <c r="P20" t="n">
-        <v>2554.826748885607</v>
+        <v>2784.377728392101</v>
       </c>
       <c r="Q20" t="n">
-        <v>2833.283416404916</v>
+        <v>2852.642555158105</v>
       </c>
       <c r="R20" t="n">
-        <v>2852.642555158106</v>
+        <v>2852.642555158105</v>
       </c>
       <c r="S20" t="n">
-        <v>2811.163274887708</v>
+        <v>2811.163274887707</v>
       </c>
       <c r="T20" t="n">
         <v>2705.31025201911</v>
       </c>
       <c r="U20" t="n">
-        <v>2559.2140635274</v>
+        <v>2559.214063527401</v>
       </c>
       <c r="V20" t="n">
-        <v>2335.721535408159</v>
+        <v>2489.406028716294</v>
       </c>
       <c r="W20" t="n">
-        <v>2090.523239362373</v>
+        <v>2244.207732670508</v>
       </c>
       <c r="X20" t="n">
-        <v>1824.627840325622</v>
+        <v>1978.312333633757</v>
       </c>
       <c r="Y20" t="n">
-        <v>1542.058867574139</v>
+        <v>1695.743360882275</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>1087.510873768022</v>
       </c>
       <c r="M21" t="n">
-        <v>1308.788708669522</v>
+        <v>1470.046791186383</v>
       </c>
       <c r="N21" t="n">
         <v>1711.589836860726</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.6525373830137</v>
+        <v>359.6525373830136</v>
       </c>
       <c r="C22" t="n">
-        <v>298.2867136794356</v>
+        <v>298.2867136794355</v>
       </c>
       <c r="D22" t="n">
-        <v>255.7404334914287</v>
+        <v>255.7404334914286</v>
       </c>
       <c r="E22" t="n">
-        <v>215.3976991333644</v>
+        <v>215.3976991333643</v>
       </c>
       <c r="F22" t="n">
-        <v>176.0781108597829</v>
+        <v>176.0781108597828</v>
       </c>
       <c r="G22" t="n">
-        <v>115.1826739382533</v>
+        <v>115.1826739382532</v>
       </c>
       <c r="H22" t="n">
-        <v>69.75244264294267</v>
+        <v>69.75244264294265</v>
       </c>
       <c r="I22" t="n">
         <v>57.05285110316211</v>
       </c>
       <c r="J22" t="n">
-        <v>71.2721836414989</v>
+        <v>154.7373851593265</v>
       </c>
       <c r="K22" t="n">
-        <v>188.3813185741315</v>
+        <v>271.8465200919591</v>
       </c>
       <c r="L22" t="n">
-        <v>393.7671266268802</v>
+        <v>477.2323281447078</v>
       </c>
       <c r="M22" t="n">
-        <v>620.7067870977835</v>
+        <v>704.1719886156111</v>
       </c>
       <c r="N22" t="n">
-        <v>847.6849460996236</v>
+        <v>931.1501476174512</v>
       </c>
       <c r="O22" t="n">
         <v>1146.7494269787</v>
@@ -5944,16 +5944,16 @@
         <v>996.3329943760041</v>
       </c>
       <c r="V22" t="n">
-        <v>849.2188653944461</v>
+        <v>849.218865394446</v>
       </c>
       <c r="W22" t="n">
-        <v>667.3720545818143</v>
+        <v>667.3720545818142</v>
       </c>
       <c r="X22" t="n">
-        <v>546.9528629081258</v>
+        <v>546.9528629081257</v>
       </c>
       <c r="Y22" t="n">
-        <v>433.7306429889246</v>
+        <v>433.7306429889244</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>1675.66186907165</v>
       </c>
       <c r="C23" t="n">
-        <v>1414.269711355567</v>
+        <v>1414.269711355568</v>
       </c>
       <c r="D23" t="n">
-        <v>1163.574371973145</v>
+        <v>1163.574371973146</v>
       </c>
       <c r="E23" t="n">
-        <v>885.3564785992301</v>
+        <v>885.3564785992305</v>
       </c>
       <c r="F23" t="n">
-        <v>581.9409330339513</v>
+        <v>581.9409330339518</v>
       </c>
       <c r="G23" t="n">
         <v>272.7379547298558</v>
@@ -5987,25 +5987,25 @@
         <v>65.30550074990816</v>
       </c>
       <c r="J23" t="n">
-        <v>280.1023687446564</v>
+        <v>141.3351454668039</v>
       </c>
       <c r="K23" t="n">
-        <v>722.771997772518</v>
+        <v>263.1008160492124</v>
       </c>
       <c r="L23" t="n">
-        <v>1189.132836758101</v>
+        <v>864.5482619266995</v>
       </c>
       <c r="M23" t="n">
-        <v>1874.965552285953</v>
+        <v>1550.380977454551</v>
       </c>
       <c r="N23" t="n">
-        <v>2124.290305453396</v>
+        <v>2232.679185789858</v>
       </c>
       <c r="O23" t="n">
-        <v>2723.377518054456</v>
+        <v>2831.766398390918</v>
       </c>
       <c r="P23" t="n">
-        <v>3197.010210729404</v>
+        <v>2986.818369976099</v>
       </c>
       <c r="Q23" t="n">
         <v>3265.275037495408</v>
@@ -6017,7 +6017,7 @@
         <v>3223.79575722501</v>
       </c>
       <c r="T23" t="n">
-        <v>3117.942734356412</v>
+        <v>3117.942734356413</v>
       </c>
       <c r="U23" t="n">
         <v>2971.846545864704</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>367.9051870297597</v>
+        <v>367.9051870297596</v>
       </c>
       <c r="C25" t="n">
-        <v>306.5393633261816</v>
+        <v>306.5393633261815</v>
       </c>
       <c r="D25" t="n">
-        <v>263.9930831381747</v>
+        <v>263.9930831381746</v>
       </c>
       <c r="E25" t="n">
         <v>223.6503487801104</v>
@@ -6160,10 +6160,10 @@
         <v>939.4027972641974</v>
       </c>
       <c r="O25" t="n">
-        <v>1133.037569067509</v>
+        <v>1155.002076625446</v>
       </c>
       <c r="P25" t="n">
-        <v>1297.169393114809</v>
+        <v>1402.599102190574</v>
       </c>
       <c r="Q25" t="n">
         <v>1417.593302859706</v>
@@ -6181,16 +6181,16 @@
         <v>1004.58564402275</v>
       </c>
       <c r="V25" t="n">
-        <v>857.4715150411921</v>
+        <v>857.471515041192</v>
       </c>
       <c r="W25" t="n">
-        <v>675.6247042285603</v>
+        <v>675.6247042285602</v>
       </c>
       <c r="X25" t="n">
-        <v>555.2055125548718</v>
+        <v>555.2055125548717</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.9832926356706</v>
+        <v>441.9832926356705</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2064.158131494402</v>
+        <v>2064.158131494401</v>
       </c>
       <c r="C26" t="n">
-        <v>1749.591904340568</v>
+        <v>1749.591904340567</v>
       </c>
       <c r="D26" t="n">
-        <v>1445.722495520396</v>
+        <v>1445.722495520395</v>
       </c>
       <c r="E26" t="n">
         <v>1114.330532708729</v>
       </c>
       <c r="F26" t="n">
-        <v>757.7409177056993</v>
+        <v>757.7409177056988</v>
       </c>
       <c r="G26" t="n">
-        <v>395.3638699638532</v>
+        <v>395.3638699638527</v>
       </c>
       <c r="H26" t="n">
         <v>134.7573465461542</v>
@@ -6224,22 +6224,22 @@
         <v>81.58327710840332</v>
       </c>
       <c r="J26" t="n">
-        <v>296.3801451031518</v>
+        <v>296.3801451031516</v>
       </c>
       <c r="K26" t="n">
-        <v>739.0497741310137</v>
+        <v>739.0497741310132</v>
       </c>
       <c r="L26" t="n">
-        <v>1340.497220008501</v>
+        <v>1340.4972200085</v>
       </c>
       <c r="M26" t="n">
         <v>2026.329935536352</v>
       </c>
       <c r="N26" t="n">
-        <v>2708.62814387166</v>
+        <v>2708.628143871659</v>
       </c>
       <c r="O26" t="n">
-        <v>3307.71535647272</v>
+        <v>3307.715356472719</v>
       </c>
       <c r="P26" t="n">
         <v>3781.348049147668</v>
@@ -6251,25 +6251,25 @@
         <v>4079.163855420166</v>
       </c>
       <c r="S26" t="n">
-        <v>3984.510505712018</v>
+        <v>3984.510505712017</v>
       </c>
       <c r="T26" t="n">
         <v>3825.483413405669</v>
       </c>
       <c r="U26" t="n">
-        <v>3626.21315547621</v>
+        <v>3626.213155476209</v>
       </c>
       <c r="V26" t="n">
-        <v>3349.546557919217</v>
+        <v>3349.546557919216</v>
       </c>
       <c r="W26" t="n">
-        <v>3051.174192435681</v>
+        <v>3051.17419243568</v>
       </c>
       <c r="X26" t="n">
-        <v>2732.104723961179</v>
+        <v>2732.104723961178</v>
       </c>
       <c r="Y26" t="n">
-        <v>2396.361681771946</v>
+        <v>2396.361681771945</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6306,16 @@
         <v>215.821440497213</v>
       </c>
       <c r="K27" t="n">
-        <v>571.8766859835844</v>
+        <v>343.2110724164834</v>
       </c>
       <c r="L27" t="n">
-        <v>1112.041299773263</v>
+        <v>883.3756862061617</v>
       </c>
       <c r="M27" t="n">
-        <v>1494.577217191624</v>
+        <v>1104.653521107662</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.120262865967</v>
+        <v>1346.196566782005</v>
       </c>
       <c r="O27" t="n">
         <v>1934.865165194991</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.30284169763117</v>
+        <v>549.3678985998494</v>
       </c>
       <c r="C28" t="n">
-        <v>99.30284169763117</v>
+        <v>549.3678985998494</v>
       </c>
       <c r="D28" t="n">
-        <v>99.30284169763117</v>
+        <v>453.6475489740916</v>
       </c>
       <c r="E28" t="n">
-        <v>99.30284169763117</v>
+        <v>360.1307451782765</v>
       </c>
       <c r="F28" t="n">
-        <v>99.30284169763117</v>
+        <v>360.1307451782765</v>
       </c>
       <c r="G28" t="n">
-        <v>81.58327710840332</v>
+        <v>246.0612388189962</v>
       </c>
       <c r="H28" t="n">
-        <v>81.58327710840332</v>
+        <v>147.4569380859347</v>
       </c>
       <c r="I28" t="n">
         <v>81.58327710840332</v>
       </c>
       <c r="J28" t="n">
-        <v>127.1519057086281</v>
+        <v>127.151905708628</v>
       </c>
       <c r="K28" t="n">
         <v>297.5748442610857</v>
@@ -6406,28 +6406,28 @@
         <v>1627.557582467336</v>
       </c>
       <c r="R28" t="n">
-        <v>1557.817980568025</v>
+        <v>1627.557582467336</v>
       </c>
       <c r="S28" t="n">
-        <v>1407.232082536458</v>
+        <v>1476.971684435769</v>
       </c>
       <c r="T28" t="n">
-        <v>1236.601838941004</v>
+        <v>1306.341440840315</v>
       </c>
       <c r="U28" t="n">
-        <v>1001.853645879376</v>
+        <v>1071.593247778686</v>
       </c>
       <c r="V28" t="n">
-        <v>801.5654474600672</v>
+        <v>1071.593247778686</v>
       </c>
       <c r="W28" t="n">
-        <v>566.5445672096846</v>
+        <v>843.0163630004633</v>
       </c>
       <c r="X28" t="n">
-        <v>392.9513060982453</v>
+        <v>843.0163630004633</v>
       </c>
       <c r="Y28" t="n">
-        <v>226.5550167412929</v>
+        <v>676.6200736435112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2064.1581314944</v>
+        <v>2064.158131494401</v>
       </c>
       <c r="C29" t="n">
-        <v>1749.591904340566</v>
+        <v>1749.591904340568</v>
       </c>
       <c r="D29" t="n">
-        <v>1445.722495520394</v>
+        <v>1445.722495520395</v>
       </c>
       <c r="E29" t="n">
-        <v>1114.330532708727</v>
+        <v>1114.330532708729</v>
       </c>
       <c r="F29" t="n">
-        <v>757.7409177056979</v>
+        <v>757.7409177056993</v>
       </c>
       <c r="G29" t="n">
-        <v>395.3638699638518</v>
+        <v>395.3638699638532</v>
       </c>
       <c r="H29" t="n">
-        <v>134.7573465461541</v>
+        <v>134.7573465461542</v>
       </c>
       <c r="I29" t="n">
-        <v>81.58327710840329</v>
+        <v>81.58327710840332</v>
       </c>
       <c r="J29" t="n">
-        <v>296.3801451031515</v>
+        <v>296.3801451031518</v>
       </c>
       <c r="K29" t="n">
-        <v>739.0497741310131</v>
+        <v>739.0497741310137</v>
       </c>
       <c r="L29" t="n">
-        <v>1340.4972200085</v>
+        <v>1340.497220008501</v>
       </c>
       <c r="M29" t="n">
         <v>2026.329935536352</v>
       </c>
       <c r="N29" t="n">
-        <v>2708.628143871659</v>
+        <v>2708.62814387166</v>
       </c>
       <c r="O29" t="n">
-        <v>3307.715356472719</v>
+        <v>3307.71535647272</v>
       </c>
       <c r="P29" t="n">
         <v>3781.348049147668</v>
@@ -6485,28 +6485,28 @@
         <v>4059.804716666977</v>
       </c>
       <c r="R29" t="n">
-        <v>4079.163855420165</v>
+        <v>4079.163855420166</v>
       </c>
       <c r="S29" t="n">
-        <v>3984.510505712015</v>
+        <v>3984.510505712018</v>
       </c>
       <c r="T29" t="n">
-        <v>3825.483413405667</v>
+        <v>3825.483413405668</v>
       </c>
       <c r="U29" t="n">
-        <v>3626.213155476208</v>
+        <v>3626.21315547621</v>
       </c>
       <c r="V29" t="n">
-        <v>3349.546557919215</v>
+        <v>3349.546557919217</v>
       </c>
       <c r="W29" t="n">
-        <v>3051.174192435679</v>
+        <v>3051.174192435681</v>
       </c>
       <c r="X29" t="n">
-        <v>2732.104723961177</v>
+        <v>2732.104723961179</v>
       </c>
       <c r="Y29" t="n">
-        <v>2396.361681771943</v>
+        <v>2396.361681771945</v>
       </c>
     </row>
     <row r="30">
@@ -6525,34 +6525,34 @@
         <v>664.0318520651795</v>
       </c>
       <c r="E30" t="n">
-        <v>504.7943970597239</v>
+        <v>504.794397059724</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2598390866089</v>
+        <v>358.259839086609</v>
       </c>
       <c r="G30" t="n">
-        <v>220.9866839439105</v>
+        <v>220.9866839439106</v>
       </c>
       <c r="H30" t="n">
-        <v>121.6955744254318</v>
+        <v>121.6955744254319</v>
       </c>
       <c r="I30" t="n">
-        <v>81.58327710840329</v>
+        <v>81.58327710840332</v>
       </c>
       <c r="J30" t="n">
-        <v>90.99131551020821</v>
+        <v>215.821440497213</v>
       </c>
       <c r="K30" t="n">
-        <v>447.0465609965797</v>
+        <v>343.2110724164834</v>
       </c>
       <c r="L30" t="n">
-        <v>987.211174786258</v>
+        <v>883.3756862061617</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.489009687758</v>
+        <v>1104.653521107662</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.120262865967</v>
+        <v>1346.196566782005</v>
       </c>
       <c r="O30" t="n">
         <v>1934.865165194991</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>226.5550167412941</v>
+        <v>642.3319430932306</v>
       </c>
       <c r="C31" t="n">
-        <v>175.1000809042183</v>
+        <v>527.7920499519017</v>
       </c>
       <c r="D31" t="n">
-        <v>175.1000809042183</v>
+        <v>432.071700326144</v>
       </c>
       <c r="E31" t="n">
-        <v>81.58327710840329</v>
+        <v>338.5548965303288</v>
       </c>
       <c r="F31" t="n">
-        <v>81.58327710840329</v>
+        <v>246.0612388189962</v>
       </c>
       <c r="G31" t="n">
-        <v>81.58327710840329</v>
+        <v>246.0612388189962</v>
       </c>
       <c r="H31" t="n">
-        <v>81.58327710840329</v>
+        <v>147.4569380859347</v>
       </c>
       <c r="I31" t="n">
-        <v>81.58327710840329</v>
+        <v>81.58327710840332</v>
       </c>
       <c r="J31" t="n">
         <v>127.1519057086281</v>
@@ -6625,10 +6625,10 @@
         <v>297.5748442610857</v>
       </c>
       <c r="L31" t="n">
-        <v>556.2744559336596</v>
+        <v>556.2744559336595</v>
       </c>
       <c r="M31" t="n">
-        <v>836.5279200243881</v>
+        <v>836.5279200243879</v>
       </c>
       <c r="N31" t="n">
         <v>1116.819882646053</v>
@@ -6643,28 +6643,28 @@
         <v>1627.557582467336</v>
       </c>
       <c r="R31" t="n">
-        <v>1557.817980568026</v>
+        <v>1557.817980568025</v>
       </c>
       <c r="S31" t="n">
-        <v>1407.232082536459</v>
+        <v>1407.232082536458</v>
       </c>
       <c r="T31" t="n">
-        <v>1236.601838941005</v>
+        <v>1407.232082536458</v>
       </c>
       <c r="U31" t="n">
-        <v>1001.853645879377</v>
+        <v>1172.48388947483</v>
       </c>
       <c r="V31" t="n">
-        <v>801.565447460068</v>
+        <v>1043.749112700565</v>
       </c>
       <c r="W31" t="n">
-        <v>566.5445672096854</v>
+        <v>808.7282324501828</v>
       </c>
       <c r="X31" t="n">
-        <v>392.9513060982461</v>
+        <v>808.7282324501828</v>
       </c>
       <c r="Y31" t="n">
-        <v>226.5550167412941</v>
+        <v>642.3319430932306</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1746.912520247085</v>
       </c>
       <c r="D32" t="n">
-        <v>1388.646821640335</v>
+        <v>1470.60504759327</v>
       </c>
       <c r="E32" t="n">
         <v>1084.816794995025</v>
       </c>
       <c r="F32" t="n">
-        <v>755.7891161583524</v>
+        <v>673.8308902054176</v>
       </c>
       <c r="G32" t="n">
         <v>339.0157786299283</v>
@@ -6695,7 +6695,7 @@
         <v>105.9711913785866</v>
       </c>
       <c r="I32" t="n">
-        <v>80.35905810719248</v>
+        <v>80.35905810719252</v>
       </c>
       <c r="J32" t="n">
         <v>295.1559261019407</v>
@@ -6710,28 +6710,28 @@
         <v>2025.105716535141</v>
       </c>
       <c r="N32" t="n">
-        <v>2647.417193811118</v>
+        <v>2707.403924870448</v>
       </c>
       <c r="O32" t="n">
-        <v>3246.504406412178</v>
+        <v>3306.491137471508</v>
       </c>
       <c r="P32" t="n">
-        <v>3720.137099087126</v>
+        <v>3739.496237840317</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.593766606435</v>
+        <v>4017.952905359626</v>
       </c>
       <c r="R32" t="n">
-        <v>4017.952905359624</v>
+        <v>4017.952905359626</v>
       </c>
       <c r="S32" t="n">
-        <v>3868.903265864898</v>
+        <v>3925.252084193551</v>
       </c>
       <c r="T32" t="n">
-        <v>3655.479883771971</v>
+        <v>3711.828702100624</v>
       </c>
       <c r="U32" t="n">
-        <v>3483.771562008868</v>
+        <v>3458.162154384587</v>
       </c>
       <c r="V32" t="n">
         <v>3209.057492993951</v>
@@ -6768,16 +6768,16 @@
         <v>357.0356200853981</v>
       </c>
       <c r="G33" t="n">
-        <v>219.7624649426997</v>
+        <v>219.7624649426998</v>
       </c>
       <c r="H33" t="n">
-        <v>120.471355424221</v>
+        <v>120.4713554242211</v>
       </c>
       <c r="I33" t="n">
-        <v>80.35905810719248</v>
+        <v>80.35905810719252</v>
       </c>
       <c r="J33" t="n">
-        <v>214.5972214960021</v>
+        <v>214.5972214960022</v>
       </c>
       <c r="K33" t="n">
         <v>570.6524669823737</v>
@@ -6786,10 +6786,10 @@
         <v>1110.817080772052</v>
       </c>
       <c r="M33" t="n">
-        <v>1493.352998190414</v>
+        <v>1332.094915673552</v>
       </c>
       <c r="N33" t="n">
-        <v>1734.896043864756</v>
+        <v>1573.637961347895</v>
       </c>
       <c r="O33" t="n">
         <v>1933.640946193781</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.243677286801</v>
+        <v>562.2436772868018</v>
       </c>
       <c r="C34" t="n">
-        <v>475.2657203118303</v>
+        <v>475.2657203118297</v>
       </c>
       <c r="D34" t="n">
-        <v>407.1073068524293</v>
+        <v>407.1073068524288</v>
       </c>
       <c r="E34" t="n">
-        <v>341.1524392229709</v>
+        <v>341.1524392229704</v>
       </c>
       <c r="F34" t="n">
-        <v>276.2207176779954</v>
+        <v>276.2207176779949</v>
       </c>
       <c r="G34" t="n">
-        <v>189.7131474850717</v>
+        <v>189.7131474850712</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6707829183671</v>
+        <v>118.670782918367</v>
       </c>
       <c r="I34" t="n">
-        <v>80.35905810719248</v>
+        <v>80.35905810719252</v>
       </c>
       <c r="J34" t="n">
-        <v>152.9411403440635</v>
+        <v>152.9411403440636</v>
       </c>
       <c r="K34" t="n">
-        <v>350.3775325331675</v>
+        <v>350.3775325331674</v>
       </c>
       <c r="L34" t="n">
         <v>636.0905978423875</v>
@@ -6880,7 +6880,7 @@
         <v>1842.440992559295</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.263326826341</v>
+        <v>1800.263326826342</v>
       </c>
       <c r="S34" t="n">
         <v>1677.239364961131</v>
@@ -6889,19 +6889,19 @@
         <v>1534.171057532034</v>
       </c>
       <c r="U34" t="n">
-        <v>1326.984800636762</v>
+        <v>1326.984800636763</v>
       </c>
       <c r="V34" t="n">
-        <v>1154.25853838381</v>
+        <v>1154.258538383811</v>
       </c>
       <c r="W34" t="n">
-        <v>946.7995942997845</v>
+        <v>946.7995942997848</v>
       </c>
       <c r="X34" t="n">
-        <v>800.7682693547019</v>
+        <v>800.7682693547022</v>
       </c>
       <c r="Y34" t="n">
-        <v>661.933916164106</v>
+        <v>661.9339161641067</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>1862.787250932038</v>
       </c>
       <c r="C35" t="n">
-        <v>1575.782959944562</v>
+        <v>1575.782959944561</v>
       </c>
       <c r="D35" t="n">
-        <v>1299.475487290746</v>
+        <v>1299.475487290745</v>
       </c>
       <c r="E35" t="n">
-        <v>995.6454606454365</v>
+        <v>995.6454606454356</v>
       </c>
       <c r="F35" t="n">
-        <v>666.6177818087638</v>
+        <v>666.6177818087629</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8026702332745</v>
+        <v>331.8026702332736</v>
       </c>
       <c r="H35" t="n">
-        <v>98.75808298193306</v>
+        <v>98.75808298193299</v>
       </c>
       <c r="I35" t="n">
-        <v>73.14594971053899</v>
+        <v>73.14594971053896</v>
       </c>
       <c r="J35" t="n">
         <v>287.9428177052872</v>
@@ -6947,37 +6947,37 @@
         <v>2017.892608138487</v>
       </c>
       <c r="N35" t="n">
-        <v>2286.761773978443</v>
+        <v>2700.190816473795</v>
       </c>
       <c r="O35" t="n">
-        <v>2885.848986579503</v>
+        <v>2922.285849624737</v>
       </c>
       <c r="P35" t="n">
-        <v>3359.481679254451</v>
+        <v>3359.481679254449</v>
       </c>
       <c r="Q35" t="n">
-        <v>3637.93834677376</v>
+        <v>3637.938346773758</v>
       </c>
       <c r="R35" t="n">
-        <v>3657.297485526949</v>
+        <v>3657.297485526948</v>
       </c>
       <c r="S35" t="n">
-        <v>3590.206071985157</v>
+        <v>3590.206071985156</v>
       </c>
       <c r="T35" t="n">
-        <v>3458.740915845165</v>
+        <v>3458.740915845164</v>
       </c>
       <c r="U35" t="n">
-        <v>3287.032594082063</v>
+        <v>3287.032594082062</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.927932691427</v>
+        <v>3037.927932691426</v>
       </c>
       <c r="W35" t="n">
         <v>2767.117503374247</v>
       </c>
       <c r="X35" t="n">
-        <v>2475.609971066102</v>
+        <v>2475.609971066101</v>
       </c>
       <c r="Y35" t="n">
         <v>2167.428865043225</v>
@@ -7011,22 +7011,22 @@
         <v>113.2582470275675</v>
       </c>
       <c r="I36" t="n">
-        <v>73.14594971053899</v>
+        <v>73.14594971053896</v>
       </c>
       <c r="J36" t="n">
-        <v>82.5539881123439</v>
+        <v>207.3841130993486</v>
       </c>
       <c r="K36" t="n">
-        <v>438.6092335987154</v>
+        <v>563.4393585857201</v>
       </c>
       <c r="L36" t="n">
-        <v>978.7738473883937</v>
+        <v>1103.603972375398</v>
       </c>
       <c r="M36" t="n">
-        <v>1200.051682289894</v>
+        <v>1486.13988979376</v>
       </c>
       <c r="N36" t="n">
-        <v>1441.594727964236</v>
+        <v>1727.682935468103</v>
       </c>
       <c r="O36" t="n">
         <v>1926.427837797127</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>555.0305688901487</v>
+        <v>555.0305688901485</v>
       </c>
       <c r="C37" t="n">
-        <v>468.0526119151767</v>
+        <v>468.0526119151764</v>
       </c>
       <c r="D37" t="n">
-        <v>399.8941984557757</v>
+        <v>399.8941984557756</v>
       </c>
       <c r="E37" t="n">
-        <v>333.9393308263174</v>
+        <v>333.9393308263172</v>
       </c>
       <c r="F37" t="n">
-        <v>269.0076092813418</v>
+        <v>269.0076092813417</v>
       </c>
       <c r="G37" t="n">
         <v>182.5000390884181</v>
       </c>
       <c r="H37" t="n">
-        <v>111.4576745217136</v>
+        <v>111.4576745217135</v>
       </c>
       <c r="I37" t="n">
-        <v>73.14594971053899</v>
+        <v>73.14594971053896</v>
       </c>
       <c r="J37" t="n">
-        <v>145.72803194741</v>
+        <v>145.7280319474101</v>
       </c>
       <c r="K37" t="n">
-        <v>343.164424136514</v>
+        <v>343.1644241365142</v>
       </c>
       <c r="L37" t="n">
-        <v>628.8774894457341</v>
+        <v>628.8774894457343</v>
       </c>
       <c r="M37" t="n">
-        <v>936.1444071731088</v>
+        <v>936.1444071731089</v>
       </c>
       <c r="N37" t="n">
-        <v>1243.44982343142</v>
+        <v>1243.449823431421</v>
       </c>
       <c r="O37" t="n">
-        <v>1517.411852491203</v>
+        <v>1517.411852491204</v>
       </c>
       <c r="P37" t="n">
         <v>1739.906426237038</v>
@@ -7138,7 +7138,7 @@
         <v>793.5551609580486</v>
       </c>
       <c r="Y37" t="n">
-        <v>654.7208077674536</v>
+        <v>654.7208077674534</v>
       </c>
     </row>
     <row r="38">
@@ -7154,67 +7154,67 @@
         <v>1575.782959944561</v>
       </c>
       <c r="D38" t="n">
-        <v>1299.475487290746</v>
+        <v>1299.475487290745</v>
       </c>
       <c r="E38" t="n">
-        <v>995.6454606454362</v>
+        <v>995.6454606454358</v>
       </c>
       <c r="F38" t="n">
-        <v>666.6177818087634</v>
+        <v>666.6177818087638</v>
       </c>
       <c r="G38" t="n">
-        <v>331.8026702332741</v>
+        <v>331.8026702332745</v>
       </c>
       <c r="H38" t="n">
-        <v>98.75808298193303</v>
+        <v>98.75808298193301</v>
       </c>
       <c r="I38" t="n">
-        <v>73.14594971053896</v>
+        <v>73.14594971053899</v>
       </c>
       <c r="J38" t="n">
-        <v>287.9428177052872</v>
+        <v>212.4536350528918</v>
       </c>
       <c r="K38" t="n">
-        <v>730.6124467331488</v>
+        <v>655.1232640807534</v>
       </c>
       <c r="L38" t="n">
-        <v>1295.6230295654</v>
+        <v>1256.570709958241</v>
       </c>
       <c r="M38" t="n">
-        <v>1981.455745093252</v>
+        <v>1942.403425486092</v>
       </c>
       <c r="N38" t="n">
-        <v>2663.753953428559</v>
+        <v>2624.701633821399</v>
       </c>
       <c r="O38" t="n">
-        <v>2885.848986579501</v>
+        <v>3223.788846422459</v>
       </c>
       <c r="P38" t="n">
-        <v>3359.48167925445</v>
+        <v>3378.84081800764</v>
       </c>
       <c r="Q38" t="n">
-        <v>3637.938346773759</v>
+        <v>3657.297485526949</v>
       </c>
       <c r="R38" t="n">
-        <v>3657.297485526948</v>
+        <v>3657.297485526949</v>
       </c>
       <c r="S38" t="n">
-        <v>3590.206071985156</v>
+        <v>3590.206071985157</v>
       </c>
       <c r="T38" t="n">
         <v>3458.740915845165</v>
       </c>
       <c r="U38" t="n">
-        <v>3287.032594082063</v>
+        <v>3287.032594082062</v>
       </c>
       <c r="V38" t="n">
-        <v>3037.927932691427</v>
+        <v>3037.927932691426</v>
       </c>
       <c r="W38" t="n">
         <v>2767.117503374247</v>
       </c>
       <c r="X38" t="n">
-        <v>2475.609971066102</v>
+        <v>2475.609971066101</v>
       </c>
       <c r="Y38" t="n">
         <v>2167.428865043225</v>
@@ -7248,7 +7248,7 @@
         <v>113.2582470275675</v>
       </c>
       <c r="I39" t="n">
-        <v>73.14594971053896</v>
+        <v>73.14594971053899</v>
       </c>
       <c r="J39" t="n">
         <v>207.3841130993486</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>555.0305688901487</v>
+        <v>555.0305688901485</v>
       </c>
       <c r="C40" t="n">
-        <v>468.0526119151767</v>
+        <v>468.0526119151764</v>
       </c>
       <c r="D40" t="n">
-        <v>399.8941984557757</v>
+        <v>399.8941984557756</v>
       </c>
       <c r="E40" t="n">
-        <v>333.9393308263174</v>
+        <v>333.9393308263172</v>
       </c>
       <c r="F40" t="n">
-        <v>269.0076092813418</v>
+        <v>269.0076092813417</v>
       </c>
       <c r="G40" t="n">
-        <v>182.5000390884182</v>
+        <v>182.5000390884181</v>
       </c>
       <c r="H40" t="n">
         <v>111.4576745217136</v>
       </c>
       <c r="I40" t="n">
-        <v>73.14594971053896</v>
+        <v>73.14594971053899</v>
       </c>
       <c r="J40" t="n">
-        <v>145.72803194741</v>
+        <v>145.7280319474101</v>
       </c>
       <c r="K40" t="n">
-        <v>343.1644241365139</v>
+        <v>343.1644241365141</v>
       </c>
       <c r="L40" t="n">
-        <v>628.877489445734</v>
+        <v>628.8774894457333</v>
       </c>
       <c r="M40" t="n">
-        <v>936.1444071731086</v>
+        <v>936.144407173108</v>
       </c>
       <c r="N40" t="n">
         <v>1243.44982343142</v>
@@ -7348,10 +7348,10 @@
         <v>1517.411852491203</v>
       </c>
       <c r="P40" t="n">
-        <v>1739.906426237038</v>
+        <v>1739.906426237037</v>
       </c>
       <c r="Q40" t="n">
-        <v>1835.227884162642</v>
+        <v>1835.227884162641</v>
       </c>
       <c r="R40" t="n">
         <v>1793.050218429688</v>
@@ -7360,7 +7360,7 @@
         <v>1670.026256564478</v>
       </c>
       <c r="T40" t="n">
-        <v>1526.957949135381</v>
+        <v>1526.95794913538</v>
       </c>
       <c r="U40" t="n">
         <v>1319.771692240109</v>
@@ -7369,13 +7369,13 @@
         <v>1147.045429987157</v>
       </c>
       <c r="W40" t="n">
-        <v>939.5864859031316</v>
+        <v>939.5864859031312</v>
       </c>
       <c r="X40" t="n">
-        <v>793.555160958049</v>
+        <v>793.5551609580486</v>
       </c>
       <c r="Y40" t="n">
-        <v>654.7208077674536</v>
+        <v>654.7208077674534</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1862.787250932038</v>
+        <v>1862.787250932039</v>
       </c>
       <c r="C41" t="n">
-        <v>1575.782959944561</v>
+        <v>1575.782959944562</v>
       </c>
       <c r="D41" t="n">
         <v>1299.475487290746</v>
       </c>
       <c r="E41" t="n">
-        <v>995.6454606454363</v>
+        <v>995.6454606454365</v>
       </c>
       <c r="F41" t="n">
         <v>666.6177818087638</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8026702332746</v>
+        <v>331.8026702332745</v>
       </c>
       <c r="H41" t="n">
-        <v>98.75808298193299</v>
+        <v>98.75808298193304</v>
       </c>
       <c r="I41" t="n">
         <v>73.14594971053897</v>
       </c>
       <c r="J41" t="n">
-        <v>287.9428177052872</v>
+        <v>120.5371686849342</v>
       </c>
       <c r="K41" t="n">
-        <v>730.6124467331488</v>
+        <v>563.2067977127958</v>
       </c>
       <c r="L41" t="n">
-        <v>1295.623029565401</v>
+        <v>1164.654243590283</v>
       </c>
       <c r="M41" t="n">
-        <v>1981.455745093252</v>
+        <v>1850.486959118134</v>
       </c>
       <c r="N41" t="n">
-        <v>2663.75395342856</v>
+        <v>2532.785167453442</v>
       </c>
       <c r="O41" t="n">
-        <v>2885.848986579502</v>
+        <v>3131.872380054502</v>
       </c>
       <c r="P41" t="n">
-        <v>3359.48167925445</v>
+        <v>3569.673520007756</v>
       </c>
       <c r="Q41" t="n">
         <v>3637.938346773759</v>
@@ -7442,7 +7442,7 @@
         <v>3458.740915845165</v>
       </c>
       <c r="U41" t="n">
-        <v>3287.032594082062</v>
+        <v>3287.032594082063</v>
       </c>
       <c r="V41" t="n">
         <v>3037.927932691427</v>
@@ -7488,19 +7488,19 @@
         <v>73.14594971053897</v>
       </c>
       <c r="J42" t="n">
-        <v>82.55398811234389</v>
+        <v>207.3841130993486</v>
       </c>
       <c r="K42" t="n">
-        <v>438.6092335987154</v>
+        <v>563.4393585857201</v>
       </c>
       <c r="L42" t="n">
-        <v>978.7738473883937</v>
+        <v>1103.603972375398</v>
       </c>
       <c r="M42" t="n">
-        <v>1200.051682289894</v>
+        <v>1486.13988979376</v>
       </c>
       <c r="N42" t="n">
-        <v>1441.594727964236</v>
+        <v>1727.682935468103</v>
       </c>
       <c r="O42" t="n">
         <v>1926.427837797127</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>555.0305688901485</v>
+        <v>555.030568890149</v>
       </c>
       <c r="C43" t="n">
-        <v>468.0526119151764</v>
+        <v>468.0526119151769</v>
       </c>
       <c r="D43" t="n">
-        <v>399.8941984557755</v>
+        <v>399.8941984557759</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9393308263172</v>
+        <v>333.9393308263176</v>
       </c>
       <c r="F43" t="n">
-        <v>269.0076092813417</v>
+        <v>269.007609281342</v>
       </c>
       <c r="G43" t="n">
-        <v>182.5000390884181</v>
+        <v>182.5000390884184</v>
       </c>
       <c r="H43" t="n">
-        <v>111.4576745217135</v>
+        <v>111.4576745217136</v>
       </c>
       <c r="I43" t="n">
         <v>73.14594971053897</v>
       </c>
       <c r="J43" t="n">
-        <v>145.7280319474101</v>
+        <v>145.7280319474097</v>
       </c>
       <c r="K43" t="n">
-        <v>343.1644241365141</v>
+        <v>343.1644241365136</v>
       </c>
       <c r="L43" t="n">
-        <v>628.8774894457342</v>
+        <v>628.8774894457345</v>
       </c>
       <c r="M43" t="n">
-        <v>936.1444071731089</v>
+        <v>936.144407173109</v>
       </c>
       <c r="N43" t="n">
         <v>1243.449823431421</v>
@@ -7588,31 +7588,31 @@
         <v>1739.906426237038</v>
       </c>
       <c r="Q43" t="n">
-        <v>1835.227884162641</v>
+        <v>1835.227884162642</v>
       </c>
       <c r="R43" t="n">
-        <v>1793.050218429688</v>
+        <v>1793.050218429689</v>
       </c>
       <c r="S43" t="n">
         <v>1670.026256564478</v>
       </c>
       <c r="T43" t="n">
-        <v>1526.95794913538</v>
+        <v>1526.957949135382</v>
       </c>
       <c r="U43" t="n">
-        <v>1319.771692240109</v>
+        <v>1319.77169224011</v>
       </c>
       <c r="V43" t="n">
-        <v>1147.045429987157</v>
+        <v>1147.045429987158</v>
       </c>
       <c r="W43" t="n">
-        <v>939.5864859031312</v>
+        <v>939.5864859031321</v>
       </c>
       <c r="X43" t="n">
-        <v>793.5551609580486</v>
+        <v>793.5551609580496</v>
       </c>
       <c r="Y43" t="n">
-        <v>654.7208077674534</v>
+        <v>654.7208077674538</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>1862.787250932038</v>
       </c>
       <c r="C44" t="n">
-        <v>1575.782959944561</v>
+        <v>1575.782959944562</v>
       </c>
       <c r="D44" t="n">
-        <v>1299.475487290745</v>
+        <v>1299.475487290746</v>
       </c>
       <c r="E44" t="n">
-        <v>995.6454606454356</v>
+        <v>995.6454606454364</v>
       </c>
       <c r="F44" t="n">
-        <v>666.6177818087629</v>
+        <v>666.6177818087638</v>
       </c>
       <c r="G44" t="n">
-        <v>331.8026702332746</v>
+        <v>331.802670233275</v>
       </c>
       <c r="H44" t="n">
-        <v>98.75808298193301</v>
+        <v>98.75808298193303</v>
       </c>
       <c r="I44" t="n">
         <v>73.14594971053897</v>
       </c>
       <c r="J44" t="n">
-        <v>287.9428177052872</v>
+        <v>120.5371686849341</v>
       </c>
       <c r="K44" t="n">
-        <v>730.6124467331489</v>
+        <v>563.2067977127956</v>
       </c>
       <c r="L44" t="n">
-        <v>1332.059892610636</v>
+        <v>1164.654243590282</v>
       </c>
       <c r="M44" t="n">
-        <v>2017.892608138488</v>
+        <v>1850.486959118134</v>
       </c>
       <c r="N44" t="n">
-        <v>2286.761773978441</v>
+        <v>2532.785167453441</v>
       </c>
       <c r="O44" t="n">
-        <v>2885.848986579501</v>
+        <v>3131.872380054501</v>
       </c>
       <c r="P44" t="n">
-        <v>3359.48167925445</v>
+        <v>3589.032658760945</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.938346773759</v>
+        <v>3657.297485526949</v>
       </c>
       <c r="R44" t="n">
         <v>3657.297485526949</v>
@@ -7679,16 +7679,16 @@
         <v>3458.740915845165</v>
       </c>
       <c r="U44" t="n">
-        <v>3287.032594082062</v>
+        <v>3287.032594082063</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.927932691426</v>
+        <v>3037.927932691427</v>
       </c>
       <c r="W44" t="n">
         <v>2767.117503374247</v>
       </c>
       <c r="X44" t="n">
-        <v>2475.609971066101</v>
+        <v>2475.609971066102</v>
       </c>
       <c r="Y44" t="n">
         <v>2167.428865043225</v>
@@ -7728,19 +7728,19 @@
         <v>207.3841130993486</v>
       </c>
       <c r="K45" t="n">
-        <v>563.4393585857201</v>
+        <v>556.1358147100825</v>
       </c>
       <c r="L45" t="n">
-        <v>1103.603972375398</v>
+        <v>729.1684866493362</v>
       </c>
       <c r="M45" t="n">
-        <v>1486.13988979376</v>
+        <v>1411.494334663336</v>
       </c>
       <c r="N45" t="n">
-        <v>1727.682935468103</v>
+        <v>1653.037380337679</v>
       </c>
       <c r="O45" t="n">
-        <v>1926.427837797127</v>
+        <v>2241.705978750665</v>
       </c>
       <c r="P45" t="n">
         <v>2381.883218286528</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.030568890149</v>
+        <v>555.0305688901486</v>
       </c>
       <c r="C46" t="n">
-        <v>468.0526119151768</v>
+        <v>468.0526119151766</v>
       </c>
       <c r="D46" t="n">
-        <v>399.8941984557758</v>
+        <v>399.8941984557757</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9393308263175</v>
+        <v>333.9393308263174</v>
       </c>
       <c r="F46" t="n">
-        <v>269.0076092813419</v>
+        <v>269.0076092813418</v>
       </c>
       <c r="G46" t="n">
         <v>182.5000390884182</v>
@@ -7804,22 +7804,22 @@
         <v>73.14594971053897</v>
       </c>
       <c r="J46" t="n">
-        <v>145.7280319474101</v>
+        <v>145.7280319474097</v>
       </c>
       <c r="K46" t="n">
-        <v>343.1644241365141</v>
+        <v>343.1644241365137</v>
       </c>
       <c r="L46" t="n">
-        <v>628.8774894457342</v>
+        <v>628.8774894457338</v>
       </c>
       <c r="M46" t="n">
-        <v>936.1444071731089</v>
+        <v>936.1444071731084</v>
       </c>
       <c r="N46" t="n">
-        <v>1243.449823431421</v>
+        <v>1243.44982343142</v>
       </c>
       <c r="O46" t="n">
-        <v>1517.411852491204</v>
+        <v>1517.411852491203</v>
       </c>
       <c r="P46" t="n">
         <v>1739.906426237038</v>
@@ -7837,19 +7837,19 @@
         <v>1526.957949135381</v>
       </c>
       <c r="U46" t="n">
-        <v>1319.77169224011</v>
+        <v>1319.771692240109</v>
       </c>
       <c r="V46" t="n">
-        <v>1147.045429987158</v>
+        <v>1147.045429987157</v>
       </c>
       <c r="W46" t="n">
-        <v>939.5864859031318</v>
+        <v>939.5864859031316</v>
       </c>
       <c r="X46" t="n">
-        <v>793.5551609580492</v>
+        <v>793.5551609580491</v>
       </c>
       <c r="Y46" t="n">
-        <v>654.7208077674538</v>
+        <v>654.7208077674535</v>
       </c>
     </row>
   </sheetData>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
         <v>251.0691524851223</v>
@@ -8462,7 +8462,7 @@
         <v>245.0306783175538</v>
       </c>
       <c r="N8" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>245.4009489368218</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>156.8184790122994</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
         <v>157.8989819595795</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.2845116011566</v>
+        <v>154.6662191763026</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>233.3455272574984</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>401.345427071651</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>233.724662887889</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>46.16173426370048</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>105.1929558367614</v>
       </c>
       <c r="N12" t="n">
-        <v>162.8869520372329</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>282.2917494577307</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>21.67612400617088</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>46.16173426370045</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>297.5646891362904</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>297.8154483760705</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>16.42835986625428</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>363.640942356168</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>46.16173426370048</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>124.0784786717392</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>87.4874014004416</v>
+        <v>469.1777643709982</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>282.2917494577306</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>345.8215365773357</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>46.16173426370048</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>162.8869520372338</v>
       </c>
       <c r="N21" t="n">
-        <v>162.8869520372338</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>28.92770277020259</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>281.2100964778203</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>46.16173426370048</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>33.48986977308263</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>162.8869520372334</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298112</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>33.48986977308263</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>288.9779873776424</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10358,19 +10358,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>376.7542667762967</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>280.7607361450791</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>46.16173426370048</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>162.8869520372338</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>162.8869520372339</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10595,13 +10595,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>19.74183098233578</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>284.9937960045776</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>162.8869520372343</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>288.9779873776431</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>92.84491552318951</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>380.8563023835459</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,16 +10835,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>46.16173426370048</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>380.8563023835463</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,13 +11072,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>285.6052205738112</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>162.8869520372343</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>288.9779873776431</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,19 +11306,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>19.74183098233345</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>305.1599061830943</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>46.16173426370054</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>257.0879199664802</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>162.886952037234</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.5951979700752</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>108.7470742158148</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>331.4669604597344</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>118.1287047444187</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>268.1023250240075</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>288.5924569850636</v>
       </c>
       <c r="Y11" t="n">
-        <v>305.0992949626481</v>
+        <v>305.0992949626482</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>301.5951979700752</v>
       </c>
       <c r="C14" t="n">
-        <v>233.9208555430593</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>325.737402048306</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.1505045785919</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>169.9912385454714</v>
+        <v>153.3436134254713</v>
       </c>
       <c r="V14" t="n">
-        <v>246.6136147767294</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>157.5897212783231</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>306.1109485210543</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>94.22508584259653</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>242.7463130853275</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.5577982247295</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>258.778236138922</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>248.1883859885974</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>152.1476483750534</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>113.3944942099156</v>
       </c>
       <c r="D28" t="n">
-        <v>94.76314612950014</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>92.58163575785696</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>91.56872113421903</v>
+        <v>91.56872113421905</v>
       </c>
       <c r="G28" t="n">
-        <v>95.38644235235208</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>97.61825772573081</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>65.21492436775608</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>69.04220588031727</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>198.2853164351158</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>6.379555517438115</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>171.857328500325</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.979653293225</v>
+        <v>125.9796532932251</v>
       </c>
       <c r="C31" t="n">
-        <v>62.45410773121053</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>94.76314612950009</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>91.56872113421898</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>112.9288112956876</v>
+        <v>112.9288112956877</v>
       </c>
       <c r="H31" t="n">
-        <v>97.61825772573074</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>65.21492436775603</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24889,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>168.9239411594994</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>70.83788742859373</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>171.857328500325</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>932979.5493855915</v>
+        <v>932979.5493855914</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>960890.8887333337</v>
+        <v>960890.8887333334</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>996464.1056827046</v>
+        <v>996464.1056827047</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>996464.1056827047</v>
+        <v>996464.1056827048</v>
       </c>
     </row>
     <row r="9">
@@ -26314,46 +26314,46 @@
         <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>425714.9831580739</v>
+        <v>425714.983158074</v>
       </c>
       <c r="F2" t="n">
-        <v>436367.4673826378</v>
+        <v>436367.4673826381</v>
       </c>
       <c r="G2" t="n">
         <v>453775.6373791384</v>
       </c>
       <c r="H2" t="n">
-        <v>453775.6373791384</v>
+        <v>453775.6373791387</v>
       </c>
       <c r="I2" t="n">
         <v>472099.0176719627</v>
       </c>
       <c r="J2" t="n">
-        <v>463121.7364928159</v>
+        <v>463121.7364928156</v>
       </c>
       <c r="K2" t="n">
-        <v>463121.7364928155</v>
+        <v>463121.7364928157</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719638</v>
+        <v>472099.017671963</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
     </row>
     <row r="3">
@@ -26375,34 +26375,34 @@
         <v>794382.2559270463</v>
       </c>
       <c r="F3" t="n">
-        <v>17183.54492231753</v>
+        <v>17183.54492231756</v>
       </c>
       <c r="G3" t="n">
-        <v>20284.80955094405</v>
+        <v>20284.80955094411</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27431.91058390445</v>
+        <v>27431.91058390448</v>
       </c>
       <c r="J3" t="n">
-        <v>76034.33342930207</v>
+        <v>76034.33342930197</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42113.86299469857</v>
+        <v>42113.8629946987</v>
       </c>
       <c r="M3" t="n">
-        <v>136494.5181763774</v>
+        <v>136494.5181763772</v>
       </c>
       <c r="N3" t="n">
-        <v>14688.7685836135</v>
+        <v>14688.76858361369</v>
       </c>
       <c r="O3" t="n">
-        <v>22797.05196002575</v>
+        <v>22797.05196002561</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>145548.5575956833</v>
       </c>
       <c r="F4" t="n">
-        <v>151720.1303266294</v>
+        <v>151720.1303266293</v>
       </c>
       <c r="G4" t="n">
         <v>168872.4090175902</v>
@@ -26448,16 +26448,16 @@
         <v>165802.5450006936</v>
       </c>
       <c r="M4" t="n">
+        <v>172421.3918118631</v>
+      </c>
+      <c r="N4" t="n">
         <v>172421.3918118632</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>172421.3918118631</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>172421.3918118632</v>
-      </c>
-      <c r="P4" t="n">
-        <v>172421.3918118631</v>
       </c>
     </row>
     <row r="5">
@@ -26482,10 +26482,10 @@
         <v>64807.29141382364</v>
       </c>
       <c r="G5" t="n">
-        <v>66938.94598149654</v>
+        <v>66938.94598149652</v>
       </c>
       <c r="H5" t="n">
-        <v>66938.94598149654</v>
+        <v>66938.94598149652</v>
       </c>
       <c r="I5" t="n">
         <v>73210.95971302353</v>
@@ -26494,22 +26494,22 @@
         <v>81156.4818103532</v>
       </c>
       <c r="K5" t="n">
-        <v>81156.48181035317</v>
+        <v>81156.4818103532</v>
       </c>
       <c r="L5" t="n">
-        <v>82520.00873688672</v>
+        <v>82520.00873688675</v>
       </c>
       <c r="M5" t="n">
-        <v>77038.04635543007</v>
+        <v>77038.04635543004</v>
       </c>
       <c r="N5" t="n">
+        <v>77038.04635543005</v>
+      </c>
+      <c r="O5" t="n">
         <v>77038.04635543004</v>
       </c>
-      <c r="O5" t="n">
-        <v>77038.04635543005</v>
-      </c>
       <c r="P5" t="n">
-        <v>77038.04635543005</v>
+        <v>77038.04635543004</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22683.89614933814</v>
+        <v>22679.48257146997</v>
       </c>
       <c r="C6" t="n">
-        <v>22683.89614933803</v>
+        <v>22679.48257147003</v>
       </c>
       <c r="D6" t="n">
-        <v>19067.90761005054</v>
+        <v>19067.90761005066</v>
       </c>
       <c r="E6" t="n">
-        <v>-575376.8225551038</v>
+        <v>-575578.4922703813</v>
       </c>
       <c r="F6" t="n">
-        <v>202656.5007198673</v>
+        <v>202501.1461533923</v>
       </c>
       <c r="G6" t="n">
-        <v>197679.4728291075</v>
+        <v>197599.8059582692</v>
       </c>
       <c r="H6" t="n">
-        <v>217964.2823800517</v>
+        <v>217884.6155092135</v>
       </c>
       <c r="I6" t="n">
         <v>191967.9916668102</v>
       </c>
       <c r="J6" t="n">
-        <v>150230.2943901425</v>
+        <v>150191.2627328417</v>
       </c>
       <c r="K6" t="n">
-        <v>226264.6278194442</v>
+        <v>226225.5961621437</v>
       </c>
       <c r="L6" t="n">
-        <v>181662.6009396837</v>
+        <v>181662.6009396839</v>
       </c>
       <c r="M6" t="n">
-        <v>86145.06132829268</v>
+        <v>86145.06132829256</v>
       </c>
       <c r="N6" t="n">
         <v>207950.8109210565</v>
       </c>
       <c r="O6" t="n">
-        <v>199842.5275446449</v>
+        <v>199842.5275446442</v>
       </c>
       <c r="P6" t="n">
         <v>222639.5795046699</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>81.13864369340541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>81.13864369340541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>106.4946556320856</v>
+      </c>
+      <c r="H2" t="n">
+        <v>106.4946556320856</v>
+      </c>
+      <c r="I2" t="n">
+        <v>106.4946556320856</v>
+      </c>
+      <c r="J2" t="n">
+        <v>53.8523268887122</v>
+      </c>
+      <c r="K2" t="n">
+        <v>53.8523268887122</v>
+      </c>
+      <c r="L2" t="n">
+        <v>81.13864369340543</v>
+      </c>
+      <c r="M2" t="n">
         <v>81.13864369340547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
         <v>81.13864369340547</v>
       </c>
-      <c r="G2" t="n">
-        <v>106.4946556320855</v>
-      </c>
-      <c r="H2" t="n">
-        <v>106.4946556320855</v>
-      </c>
-      <c r="I2" t="n">
-        <v>106.4946556320855</v>
-      </c>
-      <c r="J2" t="n">
-        <v>53.85232688871221</v>
-      </c>
-      <c r="K2" t="n">
-        <v>53.85232688871226</v>
-      </c>
-      <c r="L2" t="n">
-        <v>81.13864369340541</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>81.13864369340543</v>
       </c>
-      <c r="N2" t="n">
-        <v>81.13864369340543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>81.13864369340548</v>
-      </c>
       <c r="P2" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>670.9119237963085</v>
       </c>
       <c r="F3" t="n">
-        <v>670.9119237963085</v>
+        <v>670.9119237963087</v>
       </c>
       <c r="G3" t="n">
         <v>670.9119237963085</v>
@@ -26777,7 +26777,7 @@
         <v>670.9119237963085</v>
       </c>
       <c r="P3" t="n">
-        <v>670.9119237963087</v>
+        <v>670.9119237963083</v>
       </c>
     </row>
     <row r="4">
@@ -26799,31 +26799,31 @@
         <v>653.1886120892705</v>
       </c>
       <c r="F4" t="n">
-        <v>713.1606387895264</v>
+        <v>713.1606387895265</v>
       </c>
       <c r="G4" t="n">
-        <v>713.1606387895264</v>
+        <v>713.1606387895263</v>
       </c>
       <c r="H4" t="n">
-        <v>713.1606387895264</v>
+        <v>713.1606387895263</v>
       </c>
       <c r="I4" t="n">
         <v>816.318759373852</v>
       </c>
       <c r="J4" t="n">
+        <v>1019.790963855041</v>
+      </c>
+      <c r="K4" t="n">
         <v>1019.790963855042</v>
       </c>
-      <c r="K4" t="n">
-        <v>1019.790963855041</v>
-      </c>
       <c r="L4" t="n">
-        <v>1004.488226339906</v>
+        <v>1004.488226339907</v>
       </c>
       <c r="M4" t="n">
-        <v>914.3243713817374</v>
+        <v>914.3243713817369</v>
       </c>
       <c r="N4" t="n">
-        <v>914.324371381737</v>
+        <v>914.3243713817373</v>
       </c>
       <c r="O4" t="n">
         <v>914.3243713817371</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.35601193868007</v>
+        <v>25.35601193868014</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.49631495003214</v>
+        <v>28.49631495003206</v>
       </c>
       <c r="K2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.64232874337322</v>
+        <v>52.64232874337337</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.49631495003219</v>
+        <v>28.49631495003202</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>637.8858745741354</v>
       </c>
       <c r="F4" t="n">
-        <v>59.97202670025592</v>
+        <v>59.97202670025604</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>103.1581205843256</v>
+        <v>103.1581205843257</v>
       </c>
       <c r="J4" t="n">
-        <v>203.4722044811896</v>
+        <v>203.4722044811895</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.7220196159667</v>
+        <v>547.7220196159658</v>
       </c>
       <c r="N4" t="n">
-        <v>59.97202670025558</v>
+        <v>59.97202670025638</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.35601193868007</v>
+        <v>25.35601193868014</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.49631495003214</v>
+        <v>28.49631495003206</v>
       </c>
       <c r="P2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>637.8858745741354</v>
       </c>
       <c r="N4" t="n">
-        <v>59.97202670025592</v>
+        <v>59.97202670025604</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>219.6078975753452</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>244.5042527585278</v>
       </c>
       <c r="V8" t="n">
-        <v>312.4495209549999</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>124.6114572861376</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>220.0685272723522</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.0747697137129</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>151.4699620392151</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>271.0162918413558</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.2819158369597</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="C11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="D11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="E11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="F11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="G11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="H11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="I11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="T11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="U11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="V11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="W11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="X11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="Y11" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="C13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="D13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="E13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="F13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="G13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="H13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="I13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="J13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="K13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="L13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="M13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="N13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="O13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="P13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="R13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="S13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="T13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="U13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="V13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="W13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="X13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="C14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="D14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="E14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="F14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="G14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="H14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="I14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="T14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="U14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="V14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="W14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="X14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="Y14" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="C16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="D16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="E16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="F16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="G16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="H16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="I16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="J16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="K16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="L16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="M16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="N16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="O16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="P16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="R16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="S16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="T16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="U16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="V16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="W16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="X16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.13864369340547</v>
+        <v>81.13864369340541</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="C17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="D17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="E17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="F17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="G17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="H17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="I17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="T17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="U17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="V17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="W17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="X17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="Y17" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="C19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="D19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="E19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="F19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="G19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="H19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="I19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="J19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,43 +28752,43 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>22.18637127064358</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="O19" t="n">
-        <v>106.4946556320855</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.18637127064351</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="S19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="T19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="U19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="V19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="W19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="X19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="C20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="D20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="E20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="F20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="G20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="H20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="I20" t="n">
         <v>106.4946556320856</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="T20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="U20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="V20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="W20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="X20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="Y20" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="C22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="D22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="E22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="F22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="G22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="H22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="I22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="J22" t="n">
-        <v>22.18637127064351</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>106.4946556320855</v>
+        <v>22.18637127064355</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="R22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="S22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="T22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="U22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="V22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="W22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="X22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="Y22" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="C23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="D23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="E23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="F23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="G23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="H23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="I23" t="n">
         <v>106.4946556320856</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="T23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="U23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="V23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="W23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="X23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="Y23" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="C25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="D25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="E25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="F25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="G25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="H25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="I25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="J25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29232,37 +29232,37 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>22.18637127064343</v>
       </c>
       <c r="P25" t="n">
-        <v>22.18637127064338</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="Q25" t="n">
-        <v>106.4946556320855</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="S25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="T25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="U25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="V25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="W25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="X25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.4946556320855</v>
+        <v>106.4946556320856</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="C26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="D26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="E26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="F26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="G26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="H26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="I26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="T26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="U26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="V26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="W26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="X26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="Y26" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="C28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="D28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="E28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="F28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="G28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="H28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="I28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="J28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="K28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="L28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="M28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="N28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="O28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="P28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="R28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="S28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="T28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="U28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="V28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="W28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="X28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.85232688871221</v>
+        <v>53.8523268887122</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="C29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="D29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="E29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="F29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="G29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="H29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="I29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="T29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="U29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="V29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="W29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="X29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="C31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="D31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="E31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="F31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="G31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="H31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="I31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="J31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="K31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="L31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="M31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="N31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="O31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="P31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="R31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="S31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="T31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="U31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="V31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="W31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="X31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.85232688871226</v>
+        <v>53.8523268887122</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="C32" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="E32" t="n">
-        <v>81.13864369340541</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>81.13864369340541</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="H32" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="I32" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>55.78533014536478</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>81.13864369340541</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>55.78533014536646</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="W32" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="X32" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="Y32" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="C34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="D34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="E34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="F34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="G34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="H34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="I34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="J34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="K34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="L34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="M34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="N34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="O34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="P34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="R34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="S34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="T34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="U34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="V34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="W34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="X34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.13864369340541</v>
+        <v>81.13864369340543</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="C35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="D35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="E35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="F35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="G35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="H35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="I35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="T35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="U35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="V35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="W35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="X35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="Y35" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="C37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="D37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="E37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="F37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="G37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="H37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="I37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="J37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="K37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="L37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="M37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="N37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="O37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="P37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="R37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="S37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="T37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="U37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="V37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="W37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="X37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="C38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="D38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="E38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="F38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="G38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="H38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="I38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="T38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="U38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="V38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="W38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="X38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="C40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="D40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="E40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="F40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="G40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="H40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="I40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="J40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="K40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="L40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340456</v>
       </c>
       <c r="M40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="N40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="O40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="P40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="R40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="S40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="T40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="U40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="V40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="W40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="X40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="C41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="D41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="E41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="F41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="G41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="H41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="I41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="T41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="U41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="V41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="W41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="X41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="C43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="D43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="E43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="F43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="G43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="H43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="I43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="J43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="K43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="L43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="M43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="N43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="O43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="P43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.13864369340455</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="R43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="S43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="T43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="U43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="V43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="W43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="X43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.13864369340548</v>
+        <v>81.13864369340543</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="C44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="D44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="E44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="F44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="G44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="H44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="I44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="T44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="U44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="V44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="W44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="X44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="Y44" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="C46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="D46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="E46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="F46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="G46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="H46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="I46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="J46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="K46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="L46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="M46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="N46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="O46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="P46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="R46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="S46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="T46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="U46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="V46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="W46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="X46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.13864369340543</v>
+        <v>81.13864369340547</v>
       </c>
     </row>
   </sheetData>
@@ -31990,7 +31990,7 @@
         <v>2.697133361995208</v>
       </c>
       <c r="H14" t="n">
-        <v>27.62201704353343</v>
+        <v>27.62201704353344</v>
       </c>
       <c r="I14" t="n">
         <v>103.9812339383204</v>
@@ -31999,31 +31999,31 @@
         <v>228.915822682641</v>
       </c>
       <c r="K14" t="n">
-        <v>343.0854778958982</v>
+        <v>343.0854778958983</v>
       </c>
       <c r="L14" t="n">
         <v>425.6278730230592</v>
       </c>
       <c r="M14" t="n">
-        <v>473.5930184494414</v>
+        <v>473.5930184494415</v>
       </c>
       <c r="N14" t="n">
         <v>481.2562486142104</v>
       </c>
       <c r="O14" t="n">
-        <v>454.4366287458705</v>
+        <v>454.4366287458706</v>
       </c>
       <c r="P14" t="n">
-        <v>387.8511488716137</v>
+        <v>387.8511488716138</v>
       </c>
       <c r="Q14" t="n">
-        <v>291.2600603451602</v>
+        <v>291.2600603451603</v>
       </c>
       <c r="R14" t="n">
-        <v>169.4238035504316</v>
+        <v>169.4238035504317</v>
       </c>
       <c r="S14" t="n">
-        <v>61.46092648646587</v>
+        <v>61.46092648646588</v>
       </c>
       <c r="T14" t="n">
         <v>11.80670129213403</v>
@@ -32069,10 +32069,10 @@
         <v>1.44309357193923</v>
       </c>
       <c r="H15" t="n">
-        <v>13.93724581320256</v>
+        <v>13.93724581320257</v>
       </c>
       <c r="I15" t="n">
-        <v>49.68545850755682</v>
+        <v>49.68545850755683</v>
       </c>
       <c r="J15" t="n">
         <v>136.3406957593989</v>
@@ -32084,10 +32084,10 @@
         <v>313.3348564861911</v>
       </c>
       <c r="M15" t="n">
-        <v>365.6469984689881</v>
+        <v>365.6469984689882</v>
       </c>
       <c r="N15" t="n">
-        <v>375.3245865018613</v>
+        <v>375.3245865018614</v>
       </c>
       <c r="O15" t="n">
         <v>343.3486710394184</v>
@@ -32096,19 +32096,19 @@
         <v>275.5675786626763</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.2096285864883</v>
+        <v>184.2096285864884</v>
       </c>
       <c r="R15" t="n">
-        <v>89.59838861566554</v>
+        <v>89.59838861566556</v>
       </c>
       <c r="S15" t="n">
         <v>26.80483016299401</v>
       </c>
       <c r="T15" t="n">
-        <v>5.81667979215856</v>
+        <v>5.816679792158561</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09494036657494936</v>
+        <v>0.09494036657494938</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,13 +32154,13 @@
         <v>36.38322367078999</v>
       </c>
       <c r="J16" t="n">
-        <v>85.53577100596542</v>
+        <v>85.53577100596543</v>
       </c>
       <c r="K16" t="n">
         <v>140.5615473133905</v>
       </c>
       <c r="L16" t="n">
-        <v>179.8703869141775</v>
+        <v>179.8703869141776</v>
       </c>
       <c r="M16" t="n">
         <v>189.6481033117991</v>
@@ -32172,7 +32172,7 @@
         <v>171.0055506751641</v>
       </c>
       <c r="P16" t="n">
-        <v>146.324790724362</v>
+        <v>146.3247907243621</v>
       </c>
       <c r="Q16" t="n">
         <v>101.3077004932426</v>
@@ -32181,10 +32181,10 @@
         <v>54.39885860814002</v>
       </c>
       <c r="S16" t="n">
-        <v>21.08423209700857</v>
+        <v>21.08423209700858</v>
       </c>
       <c r="T16" t="n">
-        <v>5.169321380069916</v>
+        <v>5.169321380069917</v>
       </c>
       <c r="U16" t="n">
         <v>0.06599133676685009</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.697133361995208</v>
+        <v>2.697133361995207</v>
       </c>
       <c r="H44" t="n">
-        <v>27.62201704353344</v>
+        <v>27.62201704353342</v>
       </c>
       <c r="I44" t="n">
-        <v>103.9812339383204</v>
+        <v>103.9812339383203</v>
       </c>
       <c r="J44" t="n">
-        <v>228.915822682641</v>
+        <v>228.9158226826409</v>
       </c>
       <c r="K44" t="n">
-        <v>343.0854778958983</v>
+        <v>343.0854778958981</v>
       </c>
       <c r="L44" t="n">
-        <v>425.6278730230592</v>
+        <v>425.627873023059</v>
       </c>
       <c r="M44" t="n">
-        <v>473.5930184494415</v>
+        <v>473.5930184494413</v>
       </c>
       <c r="N44" t="n">
-        <v>481.2562486142104</v>
+        <v>481.2562486142102</v>
       </c>
       <c r="O44" t="n">
-        <v>454.4366287458706</v>
+        <v>454.4366287458703</v>
       </c>
       <c r="P44" t="n">
-        <v>387.8511488716138</v>
+        <v>387.8511488716136</v>
       </c>
       <c r="Q44" t="n">
-        <v>291.2600603451603</v>
+        <v>291.2600603451601</v>
       </c>
       <c r="R44" t="n">
-        <v>169.4238035504317</v>
+        <v>169.4238035504316</v>
       </c>
       <c r="S44" t="n">
-        <v>61.46092648646588</v>
+        <v>61.46092648646584</v>
       </c>
       <c r="T44" t="n">
         <v>11.80670129213403</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.44309357193923</v>
+        <v>1.443093571939229</v>
       </c>
       <c r="H45" t="n">
-        <v>13.93724581320257</v>
+        <v>13.93724581320256</v>
       </c>
       <c r="I45" t="n">
-        <v>49.68545850755683</v>
+        <v>49.6854585075568</v>
       </c>
       <c r="J45" t="n">
         <v>136.3406957593989</v>
       </c>
       <c r="K45" t="n">
-        <v>233.0279650793273</v>
+        <v>233.0279650793272</v>
       </c>
       <c r="L45" t="n">
-        <v>313.3348564861911</v>
+        <v>313.334856486191</v>
       </c>
       <c r="M45" t="n">
-        <v>365.6469984689882</v>
+        <v>365.646998468988</v>
       </c>
       <c r="N45" t="n">
-        <v>375.3245865018614</v>
+        <v>375.3245865018612</v>
       </c>
       <c r="O45" t="n">
-        <v>343.3486710394184</v>
+        <v>343.3486710394183</v>
       </c>
       <c r="P45" t="n">
-        <v>275.5675786626763</v>
+        <v>275.5675786626762</v>
       </c>
       <c r="Q45" t="n">
-        <v>184.2096285864884</v>
+        <v>184.2096285864883</v>
       </c>
       <c r="R45" t="n">
-        <v>89.59838861566556</v>
+        <v>89.59838861566551</v>
       </c>
       <c r="S45" t="n">
-        <v>26.80483016299401</v>
+        <v>26.804830162994</v>
       </c>
       <c r="T45" t="n">
-        <v>5.816679792158561</v>
+        <v>5.816679792158558</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09494036657494938</v>
+        <v>0.09494036657494934</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,43 +34521,43 @@
         <v>10.75658789299656</v>
       </c>
       <c r="I46" t="n">
-        <v>36.38322367078999</v>
+        <v>36.38322367078997</v>
       </c>
       <c r="J46" t="n">
-        <v>85.53577100596543</v>
+        <v>85.53577100596539</v>
       </c>
       <c r="K46" t="n">
         <v>140.5615473133905</v>
       </c>
       <c r="L46" t="n">
-        <v>179.8703869141776</v>
+        <v>179.8703869141775</v>
       </c>
       <c r="M46" t="n">
-        <v>189.6481033117991</v>
+        <v>189.648103311799</v>
       </c>
       <c r="N46" t="n">
-        <v>185.1386952993979</v>
+        <v>185.1386952993978</v>
       </c>
       <c r="O46" t="n">
-        <v>171.0055506751641</v>
+        <v>171.005550675164</v>
       </c>
       <c r="P46" t="n">
-        <v>146.3247907243621</v>
+        <v>146.324790724362</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.3077004932426</v>
+        <v>101.3077004932425</v>
       </c>
       <c r="R46" t="n">
-        <v>54.39885860814002</v>
+        <v>54.39885860814</v>
       </c>
       <c r="S46" t="n">
-        <v>21.08423209700858</v>
+        <v>21.08423209700856</v>
       </c>
       <c r="T46" t="n">
-        <v>5.169321380069917</v>
+        <v>5.169321380069914</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06599133676685009</v>
+        <v>0.06599133676685007</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
         <v>15.30273751513505</v>
@@ -35182,7 +35182,7 @@
         <v>14.68444509028111</v>
       </c>
       <c r="N8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>15.30273751513505</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>47.86991815595474</v>
+        <v>216.9665333280285</v>
       </c>
       <c r="K11" t="n">
         <v>447.1410394220824</v>
       </c>
       <c r="L11" t="n">
-        <v>423.2069853105703</v>
+        <v>189.8614580530719</v>
       </c>
       <c r="M11" t="n">
         <v>243.2467852221687</v>
       </c>
       <c r="N11" t="n">
-        <v>653.1886120892705</v>
+        <v>251.8431850176195</v>
       </c>
       <c r="O11" t="n">
-        <v>224.3384173241838</v>
+        <v>458.0630802120728</v>
       </c>
       <c r="P11" t="n">
         <v>478.4168612878268</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.95437047071076</v>
+        <v>281.2693611306154</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.55468560928196</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>135.5941044331411</v>
+        <v>9.503069092732233</v>
       </c>
       <c r="K12" t="n">
         <v>359.6517631175469</v>
@@ -35495,19 +35495,19 @@
         <v>545.6208220097761</v>
       </c>
       <c r="M12" t="n">
-        <v>223.5129645469698</v>
+        <v>328.7059203837312</v>
       </c>
       <c r="N12" t="n">
-        <v>406.869826455761</v>
+        <v>243.982874418528</v>
       </c>
       <c r="O12" t="n">
-        <v>200.7524265949739</v>
+        <v>594.6147458717035</v>
       </c>
       <c r="P12" t="n">
         <v>460.0559398882832</v>
       </c>
       <c r="Q12" t="n">
-        <v>254.3051422363159</v>
+        <v>44.22785450046683</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.31523458269811</v>
+        <v>73.31523458269805</v>
       </c>
       <c r="K13" t="n">
         <v>199.4306991809131</v>
       </c>
       <c r="L13" t="n">
-        <v>288.5990558678992</v>
+        <v>288.5990558678991</v>
       </c>
       <c r="M13" t="n">
-        <v>310.3706239670452</v>
+        <v>310.3706239670451</v>
       </c>
       <c r="N13" t="n">
-        <v>310.4095113720319</v>
+        <v>310.4095113720318</v>
       </c>
       <c r="O13" t="n">
-        <v>276.7293222826092</v>
+        <v>276.7293222826091</v>
       </c>
       <c r="P13" t="n">
-        <v>224.741993682661</v>
+        <v>224.7419936826609</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.28430093495368</v>
+        <v>96.28430093495362</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>216.9665333280285</v>
+        <v>47.86991815595476</v>
       </c>
       <c r="K14" t="n">
-        <v>447.1410394220824</v>
+        <v>405.2873763086484</v>
       </c>
       <c r="L14" t="n">
-        <v>189.8614580530719</v>
+        <v>607.5226726035224</v>
       </c>
       <c r="M14" t="n">
-        <v>692.7603187150012</v>
+        <v>243.2467852221688</v>
       </c>
       <c r="N14" t="n">
-        <v>251.8431850176195</v>
+        <v>689.1901094296037</v>
       </c>
       <c r="O14" t="n">
-        <v>246.0145413303547</v>
+        <v>605.1385985869292</v>
       </c>
       <c r="P14" t="n">
-        <v>478.4168612878268</v>
+        <v>156.6181531163443</v>
       </c>
       <c r="Q14" t="n">
-        <v>281.2693611306154</v>
+        <v>68.95437047071081</v>
       </c>
       <c r="R14" t="n">
-        <v>19.55468560928196</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.503069092732233</v>
+        <v>135.5941044331411</v>
       </c>
       <c r="K15" t="n">
-        <v>95.18652610496829</v>
+        <v>359.6517631175469</v>
       </c>
       <c r="L15" t="n">
         <v>545.6208220097761</v>
       </c>
       <c r="M15" t="n">
-        <v>689.2180282969697</v>
+        <v>521.0776536832602</v>
       </c>
       <c r="N15" t="n">
-        <v>243.982874418528</v>
+        <v>243.9828744185281</v>
       </c>
       <c r="O15" t="n">
-        <v>498.5678749710445</v>
+        <v>594.6147458717035</v>
       </c>
       <c r="P15" t="n">
-        <v>460.0559398882832</v>
+        <v>141.5931712483461</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.22785450046683</v>
+        <v>44.22785450046686</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>73.31523458269811</v>
+        <v>73.31523458269807</v>
       </c>
       <c r="K16" t="n">
         <v>199.4306991809131</v>
       </c>
       <c r="L16" t="n">
-        <v>288.5990558678992</v>
+        <v>288.5990558678991</v>
       </c>
       <c r="M16" t="n">
         <v>310.3706239670452</v>
@@ -35823,7 +35823,7 @@
         <v>224.741993682661</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.28430093495368</v>
+        <v>96.28430093495363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>216.9665333280285</v>
+        <v>47.86991815595474</v>
       </c>
       <c r="K17" t="n">
-        <v>122.9956268509177</v>
+        <v>447.1410394220824</v>
       </c>
       <c r="L17" t="n">
-        <v>607.5226726035223</v>
+        <v>189.8614580530719</v>
       </c>
       <c r="M17" t="n">
-        <v>259.675145088423</v>
+        <v>692.7603187150012</v>
       </c>
       <c r="N17" t="n">
-        <v>251.8431850176195</v>
+        <v>615.4841273737875</v>
       </c>
       <c r="O17" t="n">
         <v>605.1385985869291</v>
       </c>
       <c r="P17" t="n">
-        <v>478.4168612878268</v>
+        <v>156.6181531163442</v>
       </c>
       <c r="Q17" t="n">
-        <v>281.2693611306154</v>
+        <v>68.95437047071076</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>135.5941044331411</v>
+        <v>133.5815477644715</v>
       </c>
       <c r="K18" t="n">
-        <v>359.6517631175469</v>
+        <v>95.18652610496829</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6208220097761</v>
+        <v>174.780476706317</v>
       </c>
       <c r="M18" t="n">
-        <v>223.5129645469698</v>
+        <v>689.2180282969697</v>
       </c>
       <c r="N18" t="n">
-        <v>331.4702758189696</v>
+        <v>713.1606387895263</v>
       </c>
       <c r="O18" t="n">
         <v>594.6147458717035</v>
@@ -35981,7 +35981,7 @@
         <v>141.593171248346</v>
       </c>
       <c r="Q18" t="n">
-        <v>254.3051422363159</v>
+        <v>44.22785450046683</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>98.67124652137818</v>
+        <v>98.67124652137819</v>
       </c>
       <c r="K19" t="n">
         <v>118.2920554875076</v>
@@ -36048,19 +36048,19 @@
         <v>207.4604121744937</v>
       </c>
       <c r="M19" t="n">
-        <v>229.2319802736397</v>
+        <v>251.4183515442833</v>
       </c>
       <c r="N19" t="n">
-        <v>229.2708676786264</v>
+        <v>335.765523310712</v>
       </c>
       <c r="O19" t="n">
-        <v>302.0853342212893</v>
+        <v>195.5906785892037</v>
       </c>
       <c r="P19" t="n">
         <v>143.6033499892555</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.33202851219171</v>
+        <v>15.14565724154821</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>216.9665333280285</v>
+        <v>47.86991815595474</v>
       </c>
       <c r="K20" t="n">
         <v>122.9956268509177</v>
       </c>
       <c r="L20" t="n">
-        <v>189.8614580530719</v>
+        <v>607.5226726035223</v>
       </c>
       <c r="M20" t="n">
-        <v>692.7603187150012</v>
+        <v>525.5385346798993</v>
       </c>
       <c r="N20" t="n">
-        <v>251.8431850176195</v>
+        <v>689.1901094296036</v>
       </c>
       <c r="O20" t="n">
-        <v>570.1599539015194</v>
+        <v>605.1385985869291</v>
       </c>
       <c r="P20" t="n">
-        <v>478.4168612878268</v>
+        <v>156.6181531163442</v>
       </c>
       <c r="Q20" t="n">
-        <v>281.2693611306154</v>
+        <v>68.95437047071076</v>
       </c>
       <c r="R20" t="n">
-        <v>19.55468560928196</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>545.6208220097761</v>
       </c>
       <c r="M21" t="n">
-        <v>223.5129645469698</v>
+        <v>386.3999165842036</v>
       </c>
       <c r="N21" t="n">
-        <v>406.8698264557619</v>
+        <v>243.982874418528</v>
       </c>
       <c r="O21" t="n">
         <v>200.7524265949739</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.36296215993615</v>
+        <v>98.67124652137819</v>
       </c>
       <c r="K22" t="n">
         <v>118.2920554875076</v>
@@ -36291,13 +36291,13 @@
         <v>229.2708676786264</v>
       </c>
       <c r="O22" t="n">
-        <v>302.0853342212893</v>
+        <v>217.7770498598473</v>
       </c>
       <c r="P22" t="n">
         <v>143.6033499892555</v>
       </c>
       <c r="Q22" t="n">
-        <v>121.6403128736337</v>
+        <v>121.6403128736338</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>216.9665333280285</v>
+        <v>76.79762092615732</v>
       </c>
       <c r="K23" t="n">
-        <v>447.1410394220824</v>
+        <v>122.9956268509177</v>
       </c>
       <c r="L23" t="n">
-        <v>471.0715545308922</v>
+        <v>607.5226726035223</v>
       </c>
       <c r="M23" t="n">
         <v>692.7603187150012</v>
       </c>
       <c r="N23" t="n">
-        <v>251.8431850176195</v>
+        <v>689.1901094296036</v>
       </c>
       <c r="O23" t="n">
         <v>605.1385985869291</v>
       </c>
       <c r="P23" t="n">
-        <v>478.4168612878268</v>
+        <v>156.6181531163442</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.95437047071076</v>
+        <v>281.2693611306154</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>98.67124652137818</v>
+        <v>98.67124652137819</v>
       </c>
       <c r="K25" t="n">
         <v>118.2920554875076</v>
@@ -36528,13 +36528,13 @@
         <v>229.2708676786264</v>
       </c>
       <c r="O25" t="n">
-        <v>195.5906785892037</v>
+        <v>217.7770498598472</v>
       </c>
       <c r="P25" t="n">
-        <v>165.7897212598989</v>
+        <v>250.0980056213411</v>
       </c>
       <c r="Q25" t="n">
-        <v>121.6403128736337</v>
+        <v>15.14565724154821</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>216.9665333280285</v>
+        <v>216.9665333280286</v>
       </c>
       <c r="K26" t="n">
         <v>447.1410394220824</v>
@@ -36674,19 +36674,19 @@
         <v>135.5941044331411</v>
       </c>
       <c r="K27" t="n">
-        <v>359.6517631175469</v>
+        <v>128.6763958780509</v>
       </c>
       <c r="L27" t="n">
         <v>545.6208220097761</v>
       </c>
       <c r="M27" t="n">
-        <v>386.3999165842031</v>
+        <v>223.5129645469698</v>
       </c>
       <c r="N27" t="n">
         <v>243.982874418528</v>
       </c>
       <c r="O27" t="n">
-        <v>200.7524265949739</v>
+        <v>594.6147458717035</v>
       </c>
       <c r="P27" t="n">
         <v>460.0559398882832</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>46.02891777800485</v>
+        <v>46.02891777800484</v>
       </c>
       <c r="K28" t="n">
-        <v>172.1443823762199</v>
+        <v>172.1443823762198</v>
       </c>
       <c r="L28" t="n">
         <v>261.3127390632059</v>
@@ -36771,7 +36771,7 @@
         <v>197.4556768779677</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.99798413026042</v>
+        <v>68.99798413026041</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>281.2693611306154</v>
       </c>
       <c r="R29" t="n">
-        <v>19.55468560928064</v>
+        <v>19.55468560928196</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>9.503069092732233</v>
+        <v>135.5941044331411</v>
       </c>
       <c r="K30" t="n">
-        <v>359.6517631175469</v>
+        <v>128.6763958780509</v>
       </c>
       <c r="L30" t="n">
         <v>545.6208220097761</v>
@@ -36920,10 +36920,10 @@
         <v>223.5129645469698</v>
       </c>
       <c r="N30" t="n">
-        <v>532.9608617961704</v>
+        <v>243.982874418528</v>
       </c>
       <c r="O30" t="n">
-        <v>200.7524265949739</v>
+        <v>594.6147458717035</v>
       </c>
       <c r="P30" t="n">
         <v>460.0559398882832</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>46.0289177780049</v>
+        <v>46.02891777800484</v>
       </c>
       <c r="K31" t="n">
-        <v>172.1443823762199</v>
+        <v>172.1443823762198</v>
       </c>
       <c r="L31" t="n">
-        <v>261.312739063206</v>
+        <v>261.3127390632059</v>
       </c>
       <c r="M31" t="n">
         <v>283.0843071623519</v>
@@ -37005,10 +37005,10 @@
         <v>249.443005477916</v>
       </c>
       <c r="P31" t="n">
-        <v>197.4556768779678</v>
+        <v>197.4556768779677</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.99798413026048</v>
+        <v>68.99798413026041</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,19 +37078,19 @@
         <v>692.7603187150012</v>
       </c>
       <c r="N32" t="n">
-        <v>628.5974517939162</v>
+        <v>689.1901094296036</v>
       </c>
       <c r="O32" t="n">
         <v>605.1385985869291</v>
       </c>
       <c r="P32" t="n">
-        <v>478.4168612878268</v>
+        <v>437.3788892614233</v>
       </c>
       <c r="Q32" t="n">
         <v>281.2693611306154</v>
       </c>
       <c r="R32" t="n">
-        <v>19.55468560928196</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>545.6208220097761</v>
       </c>
       <c r="M33" t="n">
-        <v>386.3999165842036</v>
+        <v>223.5129645469698</v>
       </c>
       <c r="N33" t="n">
         <v>243.982874418528</v>
       </c>
       <c r="O33" t="n">
-        <v>200.7524265949739</v>
+        <v>363.6393786322078</v>
       </c>
       <c r="P33" t="n">
         <v>460.0559398882832</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.31523458269805</v>
+        <v>73.31523458269807</v>
       </c>
       <c r="K34" t="n">
         <v>199.4306991809131</v>
@@ -37236,16 +37236,16 @@
         <v>310.3706239670451</v>
       </c>
       <c r="N34" t="n">
-        <v>310.4095113720318</v>
+        <v>310.4095113720319</v>
       </c>
       <c r="O34" t="n">
-        <v>276.7293222826091</v>
+        <v>276.7293222826092</v>
       </c>
       <c r="P34" t="n">
-        <v>224.7419936826609</v>
+        <v>224.741993682661</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.28430093495362</v>
+        <v>96.28430093495363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,13 +37315,13 @@
         <v>692.7603187150012</v>
       </c>
       <c r="N35" t="n">
-        <v>271.5850159999553</v>
+        <v>689.1901094296036</v>
       </c>
       <c r="O35" t="n">
-        <v>605.1385985869291</v>
+        <v>224.3384173241838</v>
       </c>
       <c r="P35" t="n">
-        <v>478.4168612878268</v>
+        <v>441.6119491209217</v>
       </c>
       <c r="Q35" t="n">
         <v>281.2693611306154</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.503069092732233</v>
+        <v>135.5941044331411</v>
       </c>
       <c r="K36" t="n">
         <v>359.6517631175469</v>
@@ -37391,13 +37391,13 @@
         <v>545.6208220097761</v>
       </c>
       <c r="M36" t="n">
-        <v>223.5129645469698</v>
+        <v>386.399916584204</v>
       </c>
       <c r="N36" t="n">
         <v>243.982874418528</v>
       </c>
       <c r="O36" t="n">
-        <v>489.730413972617</v>
+        <v>200.7524265949739</v>
       </c>
       <c r="P36" t="n">
         <v>460.0559398882832</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.31523458269807</v>
+        <v>73.31523458269811</v>
       </c>
       <c r="K37" t="n">
         <v>199.4306991809131</v>
       </c>
       <c r="L37" t="n">
-        <v>288.5990558678991</v>
+        <v>288.5990558678992</v>
       </c>
       <c r="M37" t="n">
-        <v>310.3706239670451</v>
+        <v>310.3706239670452</v>
       </c>
       <c r="N37" t="n">
         <v>310.4095113720319</v>
@@ -37482,7 +37482,7 @@
         <v>224.741993682661</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.28430093495363</v>
+        <v>96.28430093495368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>216.9665333280285</v>
+        <v>140.7148336791442</v>
       </c>
       <c r="K38" t="n">
         <v>447.1410394220824</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7177604366178</v>
+        <v>607.5226726035223</v>
       </c>
       <c r="M38" t="n">
         <v>692.7603187150012</v>
@@ -37555,16 +37555,16 @@
         <v>689.1901094296036</v>
       </c>
       <c r="O38" t="n">
-        <v>224.3384173241838</v>
+        <v>605.1385985869291</v>
       </c>
       <c r="P38" t="n">
-        <v>478.4168612878268</v>
+        <v>156.6181531163442</v>
       </c>
       <c r="Q38" t="n">
         <v>281.2693611306154</v>
       </c>
       <c r="R38" t="n">
-        <v>19.55468560928196</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.31523458269807</v>
+        <v>73.31523458269811</v>
       </c>
       <c r="K40" t="n">
         <v>199.4306991809131</v>
       </c>
       <c r="L40" t="n">
-        <v>288.5990558678991</v>
+        <v>288.5990558678982</v>
       </c>
       <c r="M40" t="n">
-        <v>310.3706239670451</v>
+        <v>310.3706239670452</v>
       </c>
       <c r="N40" t="n">
         <v>310.4095113720319</v>
@@ -37719,7 +37719,7 @@
         <v>224.741993682661</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.28430093495363</v>
+        <v>96.28430093495368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>216.9665333280285</v>
+        <v>47.86991815595474</v>
       </c>
       <c r="K41" t="n">
         <v>447.1410394220824</v>
       </c>
       <c r="L41" t="n">
-        <v>570.7177604366183</v>
+        <v>607.5226726035223</v>
       </c>
       <c r="M41" t="n">
         <v>692.7603187150012</v>
@@ -37792,13 +37792,13 @@
         <v>689.1901094296036</v>
       </c>
       <c r="O41" t="n">
-        <v>224.3384173241838</v>
+        <v>605.1385985869291</v>
       </c>
       <c r="P41" t="n">
-        <v>478.4168612878268</v>
+        <v>442.2233736901554</v>
       </c>
       <c r="Q41" t="n">
-        <v>281.2693611306154</v>
+        <v>68.95437047071076</v>
       </c>
       <c r="R41" t="n">
         <v>19.55468560928196</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9.503069092732233</v>
+        <v>135.5941044331411</v>
       </c>
       <c r="K42" t="n">
         <v>359.6517631175469</v>
@@ -37865,13 +37865,13 @@
         <v>545.6208220097761</v>
       </c>
       <c r="M42" t="n">
-        <v>223.5129645469698</v>
+        <v>386.399916584204</v>
       </c>
       <c r="N42" t="n">
         <v>243.982874418528</v>
       </c>
       <c r="O42" t="n">
-        <v>489.730413972617</v>
+        <v>200.7524265949739</v>
       </c>
       <c r="P42" t="n">
         <v>460.0559398882832</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.31523458269812</v>
+        <v>73.31523458269807</v>
       </c>
       <c r="K43" t="n">
         <v>199.4306991809131</v>
       </c>
       <c r="L43" t="n">
-        <v>288.5990558678992</v>
+        <v>288.5990558678991</v>
       </c>
       <c r="M43" t="n">
-        <v>310.3706239670452</v>
+        <v>310.3706239670451</v>
       </c>
       <c r="N43" t="n">
         <v>310.4095113720319</v>
@@ -37956,7 +37956,7 @@
         <v>224.741993682661</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.28430093495275</v>
+        <v>96.28430093495363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>216.9665333280285</v>
+        <v>47.86991815595465</v>
       </c>
       <c r="K44" t="n">
-        <v>447.1410394220825</v>
+        <v>447.1410394220823</v>
       </c>
       <c r="L44" t="n">
-        <v>607.5226726035224</v>
+        <v>607.5226726035222</v>
       </c>
       <c r="M44" t="n">
-        <v>692.7603187150013</v>
+        <v>692.7603187150011</v>
       </c>
       <c r="N44" t="n">
-        <v>271.585015999953</v>
+        <v>689.1901094296035</v>
       </c>
       <c r="O44" t="n">
-        <v>605.1385985869292</v>
+        <v>605.138598586929</v>
       </c>
       <c r="P44" t="n">
-        <v>478.4168612878269</v>
+        <v>461.7780592994383</v>
       </c>
       <c r="Q44" t="n">
-        <v>281.2693611306155</v>
+        <v>68.95437047071064</v>
       </c>
       <c r="R44" t="n">
-        <v>19.55468560928199</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>135.5941044331411</v>
+        <v>135.594104433141</v>
       </c>
       <c r="K45" t="n">
-        <v>359.6517631175469</v>
+        <v>352.2744460714484</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6208220097761</v>
+        <v>174.7804767063168</v>
       </c>
       <c r="M45" t="n">
-        <v>386.3999165842038</v>
+        <v>689.2180282969696</v>
       </c>
       <c r="N45" t="n">
-        <v>243.9828744185281</v>
+        <v>243.9828744185279</v>
       </c>
       <c r="O45" t="n">
-        <v>200.752426594974</v>
+        <v>594.6147458717033</v>
       </c>
       <c r="P45" t="n">
-        <v>460.0559398882833</v>
+        <v>141.5931712483459</v>
       </c>
       <c r="Q45" t="n">
-        <v>254.305142236316</v>
+        <v>254.3051422363159</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,22 +38178,22 @@
         <v>199.4306991809131</v>
       </c>
       <c r="L46" t="n">
-        <v>288.5990558678992</v>
+        <v>288.5990558678991</v>
       </c>
       <c r="M46" t="n">
-        <v>310.3706239670452</v>
+        <v>310.3706239670451</v>
       </c>
       <c r="N46" t="n">
-        <v>310.4095113720319</v>
+        <v>310.4095113720318</v>
       </c>
       <c r="O46" t="n">
-        <v>276.7293222826092</v>
+        <v>276.7293222826091</v>
       </c>
       <c r="P46" t="n">
-        <v>224.741993682661</v>
+        <v>224.7419936826609</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.28430093495365</v>
+        <v>96.28430093495363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
